--- a/opendata/bancomundial/Projects 1-500.Mayo.2021.xlsx
+++ b/opendata/bancomundial/Projects 1-500.Mayo.2021.xlsx
@@ -375,14 +375,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>World bank projects, downloaded 01-05-2021 07:46:46 am</v>
+        <v>World bank projects, downloaded 03-05-2021 03:17:38 am</v>
       </c>
     </row>
     <row r="2">
@@ -1050,7 +1050,7 @@
         <v>2016-11-18T00:00:00Z</v>
       </c>
       <c r="G26" t="str">
-        <v>2021-03-12T00:00:00Z</v>
+        <v>2021-04-28T00:00:00Z</v>
       </c>
       <c r="H26" t="str">
         <v>The Project Development Objectives (PDO) are to improve access to, and strengthen the framework for the provision of, longer term fi nance for eligible micro, small and medium enterprises.</v>
@@ -1214,16 +1214,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Proyecto de Bosques y Comunidad</v>
+        <v>Proyecto de Corredores Rurales y Protección de la Biodiversidad</v>
       </c>
       <c r="B33" t="str">
         <v>Argentina</v>
       </c>
       <c r="C33" t="str">
-        <v>P132846</v>
+        <v>P114294</v>
       </c>
       <c r="D33" t="str">
-        <v>58.76</v>
+        <v>6.28</v>
       </c>
       <c r="E33" t="str">
         <v>Activo</v>
@@ -1232,10 +1232,10 @@
         <v>2015-04-07T00:00:00Z</v>
       </c>
       <c r="G33" t="str">
-        <v>2021-04-23T00:00:00Z</v>
+        <v>2021-04-19T00:00:00Z</v>
       </c>
       <c r="H33" t="str">
-        <v>Project Development Objective (from Project Appraisal Document)  The Project Development Objective is to improve forest management; and increase access to markets and basic services by small forest producers including indigenous and campesinos in selected Northern Provinces of Argentina</v>
+        <v>The objective of the project is to increase the protection of vulnerable natural areas and conserve biological diversity within the Gran Chaco Ecosystem and the Patagonian Steppe and Coastal-Marine Ecosystems and, implement measures to enhance biodiversity resilie nce to climate change and protect forest carbon assets.</v>
       </c>
     </row>
     <row r="34">
@@ -1266,195 +1266,195 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Proyecto de Apoyo para el Empleo de los Jóvenes en Argentina</v>
+        <v>Proyecto de Bosques y Comunidad</v>
       </c>
       <c r="B35" t="str">
         <v>Argentina</v>
       </c>
       <c r="C35" t="str">
-        <v>P133129</v>
+        <v>P132846</v>
       </c>
       <c r="D35" t="str">
-        <v>425.00</v>
+        <v>58.76</v>
       </c>
       <c r="E35" t="str">
         <v>Activo</v>
       </c>
       <c r="F35" t="str">
-        <v>2015-01-15T00:00:00Z</v>
+        <v>2015-04-07T00:00:00Z</v>
       </c>
       <c r="G35" t="str">
-        <v>2021-03-04T00:00:00Z</v>
+        <v>2021-04-23T00:00:00Z</v>
       </c>
       <c r="H35" t="str">
-        <v>The development objective of the proposed Project is to improve access of vulnerable youth population to labor markets, increasing their employability by supporting the expansion and strengthening of Government employment programs.</v>
+        <v>Project Development Objective (from Project Appraisal Document)  The Project Development Objective is to improve forest management; and increase access to markets and basic services by small forest producers including indigenous and campesinos in selected Northern Provinces of Argentina</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Segunda Etapa del Proyecto de Mejoramiento de la Educación Rural (PROMER II)</v>
+        <v>Proyecto de Apoyo para el Empleo de los Jóvenes en Argentina</v>
       </c>
       <c r="B36" t="str">
         <v>Argentina</v>
       </c>
       <c r="C36" t="str">
-        <v>P133195</v>
+        <v>P133129</v>
       </c>
       <c r="D36" t="str">
-        <v>250.50</v>
+        <v>425.00</v>
       </c>
       <c r="E36" t="str">
         <v>Activo</v>
       </c>
       <c r="F36" t="str">
-        <v>2014-12-02T00:00:00Z</v>
+        <v>2015-01-15T00:00:00Z</v>
       </c>
       <c r="G36" t="str">
-        <v>2021-03-30T00:00:00Z</v>
+        <v>2021-03-04T00:00:00Z</v>
       </c>
       <c r="H36" t="str">
-        <v>The proposed Project Development Objective is to support the national Government to reduce repetition rates in Primary Education and increase enrollment in, and completion rates of, Secondary Education, all in Argentina's rural areas.</v>
+        <v>The development objective of the proposed Project is to improve access of vulnerable youth population to labor markets, increasing their employability by supporting the expansion and strengthening of Government employment programs.</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Proyecto de Desarrollo de Seguros Públicos Provinciales de Salud</v>
+        <v>Segunda Etapa del Proyecto de Mejoramiento de la Educación Rural (PROMER II)</v>
       </c>
       <c r="B37" t="str">
         <v>Argentina</v>
       </c>
       <c r="C37" t="str">
-        <v>P106735</v>
+        <v>P133195</v>
       </c>
       <c r="D37" t="str">
-        <v>400.00</v>
+        <v>250.50</v>
       </c>
       <c r="E37" t="str">
-        <v>Cerrado</v>
+        <v>Activo</v>
       </c>
       <c r="F37" t="str">
-        <v>2011-04-28T00:00:00Z</v>
+        <v>2014-12-02T00:00:00Z</v>
       </c>
       <c r="G37" t="str">
-        <v>2020-06-04T00:00:00Z</v>
+        <v>2021-03-30T00:00:00Z</v>
       </c>
       <c r="H37" t="str">
-        <v>The PDOs are to: (a) increase utilization and quality of key health services for the uninsured target population; and (b) improve institutional management by strengthening the incentives for results in Participating Provinces and among Authorized Providers.</v>
+        <v>The proposed Project Development Objective is to support the national Government to reduce repetition rates in Primary Education and increase enrollment in, and completion rates of, Secondary Education, all in Argentina's rural areas.</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Segundo Proyecto de Infraestructura Hídrica del Norte Grande</v>
+        <v>Fondo de Adaptación: Proyecto de Aumento de la Capacidad de Adaptación al Cambio Climático y Mejora de la Gestión Sostenible de la Tierra en el Sudoeste de la Provincia de Buenos Aires</v>
       </c>
       <c r="B38" t="str">
         <v>Argentina</v>
       </c>
       <c r="C38" t="str">
-        <v>P125151</v>
+        <v>P125804</v>
       </c>
       <c r="D38" t="str">
-        <v>200.00</v>
+        <v>3.96</v>
       </c>
       <c r="E38" t="str">
-        <v>Activo</v>
+        <v>Cerrado</v>
       </c>
       <c r="F38" t="str">
-        <v>2011-04-05T00:00:00Z</v>
+        <v>2013-09-20T00:00:00Z</v>
       </c>
       <c r="G38" t="str">
-        <v>2021-01-27T00:00:00Z</v>
+        <v>2020-01-27T00:00:00Z</v>
       </c>
       <c r="H38" t="str">
-        <v>The proposed new Project Development Objectives are to increase access to water supply and sanitation services and to improve the operational and financial performance of the water supply and sanitation service providers in the project area.</v>
+        <v>The PDO is to contribute to reducing climate and man-made vulnerability of the agroecosystems in the Southwest of the Buenos Aires P rovince by increasing adaptive capacity of key local institutions and actors and piloting and disseminating climate resilient and su stainable land management practices.</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Basic Protection Project Additional Financing</v>
+        <v>Proyecto de Eliminación Gradual de los Hidroclorofluorocarbonos (HCFC) en virtud del Protocolo de Montreal</v>
       </c>
       <c r="B39" t="str">
         <v>Argentina</v>
       </c>
       <c r="C39" t="str">
-        <v>P120622</v>
+        <v>P129397</v>
       </c>
       <c r="D39" t="str">
-        <v>480.00</v>
+        <v>1.90</v>
       </c>
       <c r="E39" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F39" t="str">
-        <v>2011-03-10T00:00:00Z</v>
+        <v>2013-07-30T00:00:00Z</v>
       </c>
       <c r="G39" t="str">
-        <v>2016-04-12T00:00:00Z</v>
+        <v>2018-10-29T00:00:00Z</v>
       </c>
       <c r="H39" t="str">
-        <v>18.The project development objective is to increase the effectiveness of Argentinaâs income transfer programs for the unemployed and families with children and to create the preconditions for expansion of the safety net. The specific objectives are to:   (a)Help the Government to protect expenditures on core income transfer programs, at a time of increasing fiscal pressures; (b)Support the expansion of the Seguro program (Employment Benefit and Training), aimed at increasing employability of unemployed and informal sector workers through temporary cash support, training, and job placement services. (c)Support the Governmentâs strategy to reform the âFamily Allowancesâ programthat provides income transfers to families of lower income formal sector workers, increasing transparency and accountability, and setting the operational pre-conditions for a possible expansion of coverage in the near future. (d)Enhance the capacity of the Government to monitor poverty and social protection, through technical assistance for the design and implementation of a national âSocial Protection Surveyâ and the improvement of analytical capacity.</v>
+        <v>The project development objective is to support Argentina in phasing out controlled ozone-depleting substances in accordance with the country's obligations under the Montreal Protocol.</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Programa de Fortalecimiento del Sector Público: Préstamo Adaptable para Programas (APL1)</v>
+        <v>Árbitros Jóvenes de Fútbol (GFYI)</v>
       </c>
       <c r="B40" t="str">
         <v>Argentina</v>
       </c>
       <c r="C40" t="str">
-        <v>P121836</v>
+        <v>P127297</v>
       </c>
       <c r="D40" t="str">
-        <v>30.00</v>
+        <v>0.02</v>
       </c>
       <c r="E40" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F40" t="str">
-        <v>2011-02-22T00:00:00Z</v>
+        <v>2012-04-19T00:00:00Z</v>
       </c>
       <c r="G40" t="str">
-        <v>2018-05-07T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
       </c>
       <c r="H40" t="str">
-        <v>The objective is to improve the public sector ability to contribute to the econo mic and social development of the Province of La Rioja.</v>
+        <v>To promote social inclusion and employability of youth at risk throught he creation of a football referee intensive tranining pogram.</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Segunda fase del Proyecto de Programas de Fortalecimiento de las Funciones Esenciales de la Salud Pública</v>
+        <v>Espacio cultural para la educación</v>
       </c>
       <c r="B41" t="str">
         <v>Argentina</v>
       </c>
       <c r="C41" t="str">
-        <v>P110599</v>
+        <v>P127295</v>
       </c>
       <c r="D41" t="str">
-        <v>461.00</v>
+        <v>0.04</v>
       </c>
       <c r="E41" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F41" t="str">
-        <v>2010-12-20T00:00:00Z</v>
+        <v>2012-04-17T00:00:00Z</v>
       </c>
       <c r="G41" t="str">
-        <v>2020-10-23T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
       </c>
       <c r="H41" t="str">
-        <v>The PDOs are to: (i) improve the stewardship role of the federal public health system, through the strengthening of Essential Public Health Functions; and (ii) increase the coverage and clinical governance  of Priority Public Health Programs</v>
+        <v>The objectives of the Project are to: (a) develop a cultural center which will work as a laboratory and photographic training space for young people from the socially excluded communities and (b) disseminate artistic and cultural non hegemonic productions for promotion and interchange of experiences and cultural and artistic practices.</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Proyecto de Infraestructura Vial del Norte Grande</v>
+        <v>Proyecto de Desarrollo de Seguros Públicos Provinciales de Salud</v>
       </c>
       <c r="B42" t="str">
         <v>Argentina</v>
       </c>
       <c r="C42" t="str">
-        <v>P120198</v>
+        <v>P106735</v>
       </c>
       <c r="D42" t="str">
         <v>400.00</v>
@@ -1463,73 +1463,76 @@
         <v>Cerrado</v>
       </c>
       <c r="F42" t="str">
-        <v>2010-12-20T00:00:00Z</v>
+        <v>2011-04-28T00:00:00Z</v>
       </c>
       <c r="G42" t="str">
-        <v>2020-06-15T00:00:00Z</v>
+        <v>2020-06-04T00:00:00Z</v>
       </c>
       <c r="H42" t="str">
-        <v>The development objective of the proposed project is to reduce transport costs for users of provincial roads along selected corridors of the Norte Grande provinces, through the improvement of the quality of those roads and the introduction of improved road asset management tools and methods.</v>
+        <v>The PDOs are to: (a) increase utilization and quality of key health services for the uninsured target population; and (b) improve institutional management by strengthening the incentives for results in Participating Provinces and among Authorized Providers.</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Argentina: Proyecto de Infraestructura Hídrica del Norte Grande</v>
+        <v>Segundo Proyecto de Infraestructura Hídrica del Norte Grande</v>
       </c>
       <c r="B43" t="str">
         <v>Argentina</v>
       </c>
       <c r="C43" t="str">
-        <v>P120211</v>
+        <v>P125151</v>
       </c>
       <c r="D43" t="str">
         <v>200.00</v>
       </c>
       <c r="E43" t="str">
-        <v>Cerrado</v>
+        <v>Activo</v>
       </c>
       <c r="F43" t="str">
-        <v>2010-12-20T00:00:00Z</v>
+        <v>2011-04-05T00:00:00Z</v>
       </c>
       <c r="G43" t="str">
-        <v>2020-12-11T00:00:00Z</v>
+        <v>2021-01-27T00:00:00Z</v>
       </c>
       <c r="H43" t="str">
-        <v>The PDO is to increase sustainable access to water supply and urban drainage services in the Norte Grande region of Argentina by providing investments in infrastructure and supporting institutional development.</v>
+        <v>The proposed new Project Development Objectives are to increase access to water supply and sanitation services and to improve the operational and financial performance of the water supply and sanitation service providers in the project area.</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>AR AF Buenos Aires Province Infra Sust Investment Development</v>
+        <v>Basic Protection Project Additional Financing</v>
       </c>
       <c r="B44" t="str">
         <v>Argentina</v>
       </c>
       <c r="C44" t="str">
-        <v>P114081</v>
+        <v>P120622</v>
       </c>
       <c r="D44" t="str">
-        <v>50.00</v>
+        <v>480.00</v>
       </c>
       <c r="E44" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F44" t="str">
-        <v>2010-07-27T00:00:00Z</v>
+        <v>2011-03-10T00:00:00Z</v>
       </c>
       <c r="G44" t="str">
-        <v>2014-08-08T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
+      </c>
+      <c r="H44" t="str">
+        <v>18.The project development objective is to increase the effectiveness of Argentinaâs income transfer programs for the unemployed and families with children and to create the preconditions for expansion of the safety net. The specific objectives are to:   (a)Help the Government to protect expenditures on core income transfer programs, at a time of increasing fiscal pressures; (b)Support the expansion of the Seguro program (Employment Benefit and Training), aimed at increasing employability of unemployed and informal sector workers through temporary cash support, training, and job placement services. (c)Support the Governmentâs strategy to reform the âFamily Allowancesâ programthat provides income transfers to families of lower income formal sector workers, increasing transparency and accountability, and setting the operational pre-conditions for a possible expansion of coverage in the near future. (d)Enhance the capacity of the Government to monitor poverty and social protection, through technical assistance for the design and implementation of a national âSocial Protection Surveyâ and the improvement of analytical capacity.</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Proyecto de Seguridad Vial de Argentina</v>
+        <v>Programa de Fortalecimiento del Sector Público: Préstamo Adaptable para Programas (APL1)</v>
       </c>
       <c r="B45" t="str">
         <v>Argentina</v>
       </c>
       <c r="C45" t="str">
-        <v>P116989</v>
+        <v>P121836</v>
       </c>
       <c r="D45" t="str">
         <v>30.00</v>
@@ -1538,1683 +1541,1737 @@
         <v>Cerrado</v>
       </c>
       <c r="F45" t="str">
-        <v>2010-04-06T00:00:00Z</v>
+        <v>2011-02-22T00:00:00Z</v>
       </c>
       <c r="G45" t="str">
-        <v>2018-02-05T00:00:00Z</v>
+        <v>2018-05-07T00:00:00Z</v>
       </c>
       <c r="H45" t="str">
-        <v>The proposed project development objective is to contribute to the reduction of road traffic injuries and fatalities in the Borrower's territory through the strengthening of the Borrower's institutional framework and management capacity for road safety and the reduction of road crashes in selected pilot corridors.</v>
+        <v>The objective is to improve the public sector ability to contribute to the econo mic and social development of the Province of La Rioja.</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>AR San Juan SWAP</v>
+        <v>AR Third National Communication UNFCCC</v>
       </c>
       <c r="B46" t="str">
         <v>Argentina</v>
       </c>
       <c r="C46" t="str">
-        <v>P113896</v>
+        <v>P116974</v>
       </c>
       <c r="D46" t="str">
-        <v>50.00</v>
+        <v>2.44</v>
       </c>
       <c r="E46" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F46" t="str">
-        <v>2010-03-16T00:00:00Z</v>
+        <v>2011-02-01T00:00:00Z</v>
       </c>
       <c r="G46" t="str">
-        <v>2018-01-14T00:00:00Z</v>
+        <v>2015-12-22T00:00:00Z</v>
       </c>
       <c r="H46" t="str">
-        <v>The project development objectives are to:  #  Improve the equity, quality and efficiency of health services, thereby supporting the reduction of child and maternal mortality, especially among those citizens with limited resources who rely heavily on public health services. The four health programs supported by the operation (detailed below) are conducive for these objectives.  # Improve the equity, quality and efficiency of education services in the first few years of schooling; thereby strengthen the human capital foundations of the province and improving equal opportunities in education.  The two education programs supported by the operation (detailed below) are conducive for these objectives.  #  Strengthen public sector management. The project aims to build institutional capacity in key line ministries and the finance ministry, introducing basic elements of performance-informed budgeting and policy planning, improving public resource management, and strengthening monitoring and evaluation of service delivery. The TA component is designed to support this objective.</v>
+        <v>The objective of the Project is to strengthen the information base and institutional capacity of the key members of the Steering Committee, in order to integrate climate change priorities into the Recipient’s development strategies and relevant sector programs by providing financial and technical support to prepare the TNC</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Prevention and Management of Influenza Type Illness and Strengthening of Argentina's Epidemiological System Project</v>
+        <v>Segunda fase del Proyecto de Programas de Fortalecimiento de las Funciones Esenciales de la Salud Pública</v>
       </c>
       <c r="B47" t="str">
         <v>Argentina</v>
       </c>
       <c r="C47" t="str">
-        <v>P117377</v>
+        <v>P110599</v>
       </c>
       <c r="D47" t="str">
-        <v>229.00</v>
+        <v>461.00</v>
       </c>
       <c r="E47" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F47" t="str">
-        <v>2010-02-23T00:00:00Z</v>
+        <v>2010-12-20T00:00:00Z</v>
       </c>
       <c r="G47" t="str">
-        <v>2016-06-13T00:00:00Z</v>
+        <v>2020-10-23T00:00:00Z</v>
       </c>
       <c r="H47" t="str">
-        <v>The objective of the Project is to strengthen the capacity of the Borrower’s epidemiological health surveillance system to: (a) prevent, monitor and evaluate influenza activity and (b) control epidemic waves of A/H1N1 influenza.</v>
+        <v>The PDOs are to: (i) improve the stewardship role of the federal public health system, through the strengthening of Essential Public Health Functions; and (ii) increase the coverage and clinical governance  of Priority Public Health Programs</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Argentina: Financiamiento adicional para el Proyecto de Infraestructura Vial Provincial</v>
+        <v>Proyecto de Infraestructura Vial del Norte Grande</v>
       </c>
       <c r="B48" t="str">
         <v>Argentina</v>
       </c>
       <c r="C48" t="str">
-        <v>P114018</v>
+        <v>P120198</v>
       </c>
       <c r="D48" t="str">
-        <v>175.00</v>
+        <v>400.00</v>
       </c>
       <c r="E48" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F48" t="str">
-        <v>2010-01-12T00:00:00Z</v>
+        <v>2010-12-20T00:00:00Z</v>
       </c>
       <c r="G48" t="str">
-        <v>2018-01-18T00:00:00Z</v>
+        <v>2020-06-15T00:00:00Z</v>
       </c>
       <c r="H48" t="str">
-        <v>The objectives of the Project are: (a) to improve the primary paved road sectorassets of Participating Provinces I; and (b) to enh ance the DPVs’ capacity to manage andadminister said road assets, so as to facilitate the transport of products within theBorrow er’s territory.</v>
+        <v>The development objective of the proposed project is to reduce transport costs for users of provincial roads along selected corridors of the Norte Grande provinces, through the improvement of the quality of those roads and the introduction of improved road asset management tools and methods.</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Proyecto de Transporte Urbano en Zonas Metropolitanas</v>
+        <v>Argentina: Proyecto de Infraestructura Hídrica del Norte Grande</v>
       </c>
       <c r="B49" t="str">
         <v>Argentina</v>
       </c>
       <c r="C49" t="str">
-        <v>P095485</v>
+        <v>P120211</v>
       </c>
       <c r="D49" t="str">
-        <v>150.00</v>
+        <v>200.00</v>
       </c>
       <c r="E49" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F49" t="str">
-        <v>2009-10-20T00:00:00Z</v>
+        <v>2010-12-20T00:00:00Z</v>
       </c>
       <c r="G49" t="str">
-        <v>2020-06-29T00:00:00Z</v>
+        <v>2020-12-11T00:00:00Z</v>
       </c>
       <c r="H49" t="str">
-        <v>The overall development objective of the program is to improve the quality and sustainability of urban transport systems in Argentine Metropolitan Areas, through the improvement of sectoral decision making frameworks and by giving priority to public transport modes in the urban transport sector. The project (APL1) development objectives contribute to the overall program development objective by: (i) supporting the design and creation of a multijurisdictional Metropolitan Transport Agency for the Buenos Aires Metropolitan Area (AMBA); (ii) strengthening the institutional capacity of the transport authorities in decision making, planning, priority setting, and resource allocation in urban transport; (iii) improving the quality and performance of urban transport infrastructure and/orservices in medium size Metropolitan Areas; and (iv) improving the physical integration and access to public transport networks in the Buenos Aires Metropolitan Area.</v>
+        <v>The PDO is to increase sustainable access to water supply and urban drainage services in the Norte Grande region of Argentina by providing investments in infrastructure and supporting institutional development.</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Argentina Basic Protection Project</v>
+        <v>AR AF Buenos Aires Province Infra Sust Investment Development</v>
       </c>
       <c r="B50" t="str">
         <v>Argentina</v>
       </c>
       <c r="C50" t="str">
-        <v>P115183</v>
+        <v>P114081</v>
       </c>
       <c r="D50" t="str">
-        <v>450.00</v>
+        <v>50.00</v>
       </c>
       <c r="E50" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F50" t="str">
-        <v>2009-06-09T00:00:00Z</v>
+        <v>2010-07-27T00:00:00Z</v>
       </c>
       <c r="G50" t="str">
-        <v>2016-06-03T00:00:00Z</v>
-      </c>
-      <c r="H50" t="str">
-        <v>The project development objective is to increase the effectiveness of Argentina's income transfer programs for the unemployed and families with children and to create the preconditions for expansion of the safety net. The specific objectives are to: (a)Help the Government to protect expenditures on core income transfer programs, at a time of increasing fiscal pressures; (b)Support the expansion of the Seguro program (Employment Benefit and Training), aimed at increasing employability of unemployed and informal sector workers through temporary cash support, training, and job placement services. (c)Support the Government's strategy to reform the Family Allowances program that provides income transfers to families of lower income formal sector workers, increasing transparency and accountability, and setting the operational pre-conditions for a possible expansion of coverage in the near future. (d)Enhance the capacity of the Government to monitor poverty and social protection, through technical assistance for the design and implementation of a national Social Protection Survey and the improvement of analytical capacity.</v>
+        <v>2014-08-08T00:00:00Z</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Programa de Préstamos Adaptables para el Desarrollo Sostenible de la Cuenca Matanza-Riachuelo</v>
+        <v>Argentina Grasslands Project (Mercosur)</v>
       </c>
       <c r="B51" t="str">
         <v>Argentina</v>
       </c>
       <c r="C51" t="str">
-        <v>P105680</v>
+        <v>P091659</v>
       </c>
       <c r="D51" t="str">
-        <v>840.00</v>
+        <v>0.90</v>
       </c>
       <c r="E51" t="str">
-        <v>Activo</v>
+        <v>Cerrado</v>
       </c>
       <c r="F51" t="str">
-        <v>2009-06-09T00:00:00Z</v>
+        <v>2010-04-23T00:00:00Z</v>
       </c>
       <c r="G51" t="str">
-        <v>2021-04-26T00:00:00Z</v>
+        <v>2014-05-21T00:00:00Z</v>
       </c>
       <c r="H51" t="str">
-        <v>The overall development objective of the proposed APL program supports the Government's Integrated Basin Cleanup whilesimultaneously  improving sanitary conditions along the banks of La Plata River and providing a long-term and cost-effectivesolution for safe dispo sal of wastewater from the Buenos Aires Metropolitan Area (AySAs concession area). The two stage APL programthat contributes to this  objective and the allocation of works and activities under each APL has been specifically designed toensure that APL-1 can be free- standing, with no stranded assets at the end of the first stage.  The project (APL-1) development objectives contribute to the o verall program development objective by (i) improving sewerageservices in the M-R River Basin and other parts of the Province and Ci ty of Buenos Aires by expanding transport and treatmentcapacity; (ii) supporting a reduction of industrial discharges to the M-R Riv er, through the provision of industrial conversiongrants to small and medium enterprises; (iii) promoting improved decision-making f or environmentally-sustainable land use anddrainage planning, and piloting urban drainage and land use investments, in the M-R River  Basin; and (iv) strengthening ACUMAR#sinstitutional framework for ongoing and sustainable clean-up of the M-R River Basin.</v>
+        <v>The project objective is to promote improved ecosystem management in priority grassland areas shared by four Mercosur countries (Argentina, Uruguay, Paraguay, and Brazil).  None of these countries has adequate protected area or sustainable management plans for this highly threatened ecosystem, and all have endorsed this project to begin improving ecosystem management through sustainable use (primarily in grazing lands). The project will seek to: - develop local know-how, knowledge, and capacity to manage production landscapes without the further loss of biodiversity. - support demonstration projects focusing on grassland conservatoin with high replication value. - establish a transboundary coordination mechanism that will facilitate the mainstreaming of biodiversity within the grassland production systems of the region. LCC7 will lead this task in full collaboration with LC5 -- similar to how collaboration between the two CMUs takes place on the Guarani aquifer regional GEF project.</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Argentina: Proyecto de energías renovables en mercados rurales (PERMER) (financiamiento adicional)</v>
+        <v>Proyecto de Seguridad Vial de Argentina</v>
       </c>
       <c r="B52" t="str">
         <v>Argentina</v>
       </c>
       <c r="C52" t="str">
-        <v>P110498</v>
+        <v>P116989</v>
       </c>
       <c r="D52" t="str">
-        <v>50.00</v>
+        <v>30.00</v>
       </c>
       <c r="E52" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F52" t="str">
-        <v>2008-11-11T00:00:00Z</v>
+        <v>2010-04-06T00:00:00Z</v>
       </c>
       <c r="G52" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2018-02-05T00:00:00Z</v>
+      </c>
+      <c r="H52" t="str">
+        <v>The proposed project development objective is to contribute to the reduction of road traffic injuries and fatalities in the Borrower's territory through the strengthening of the Borrower's institutional framework and management capacity for road safety and the reduction of road crashes in selected pilot corridors.</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Segundo programa de servicios agrícolas provinciales</v>
+        <v>AR San Juan SWAP</v>
       </c>
       <c r="B53" t="str">
         <v>Argentina</v>
       </c>
       <c r="C53" t="str">
-        <v>P106684</v>
+        <v>P113896</v>
       </c>
       <c r="D53" t="str">
-        <v>300.00</v>
+        <v>50.00</v>
       </c>
       <c r="E53" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F53" t="str">
-        <v>2008-09-25T00:00:00Z</v>
+        <v>2010-03-16T00:00:00Z</v>
       </c>
       <c r="G53" t="str">
-        <v>2017-03-10T00:00:00Z</v>
+        <v>2018-01-14T00:00:00Z</v>
       </c>
       <c r="H53" t="str">
-        <v>To increase the productivity and sales volume of small and medium-size producers.  To achieve this, the project's strategy involves technical assistance (TA), capacity-building activities, and direct investments that contribute to long-term improvements in agricultural productivity, as well as competitiveness and market access.</v>
+        <v>The project development objectives are to:  #  Improve the equity, quality and efficiency of health services, thereby supporting the reduction of child and maternal mortality, especially among those citizens with limited resources who rely heavily on public health services. The four health programs supported by the operation (detailed below) are conducive for these objectives.  # Improve the equity, quality and efficiency of education services in the first few years of schooling; thereby strengthen the human capital foundations of the province and improving equal opportunities in education.  The two education programs supported by the operation (detailed below) are conducive for these objectives.  #  Strengthen public sector management. The project aims to build institutional capacity in key line ministries and the finance ministry, introducing basic elements of performance-informed budgeting and policy planning, improving public resource management, and strengthening monitoring and evaluation of service delivery. The TA component is designed to support this objective.</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Argentina: Fomento de la innovación productiva</v>
+        <v>Prevention and Management of Influenza Type Illness and Strengthening of Argentina's Epidemiological System Project</v>
       </c>
       <c r="B54" t="str">
         <v>Argentina</v>
       </c>
       <c r="C54" t="str">
-        <v>P106752</v>
+        <v>P117377</v>
       </c>
       <c r="D54" t="str">
-        <v>150.00</v>
+        <v>229.00</v>
       </c>
       <c r="E54" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F54" t="str">
-        <v>2008-09-25T00:00:00Z</v>
+        <v>2010-02-23T00:00:00Z</v>
       </c>
       <c r="G54" t="str">
-        <v>2020-04-20T00:00:00Z</v>
+        <v>2016-06-13T00:00:00Z</v>
       </c>
       <c r="H54" t="str">
-        <v>The Objective of the Project is to expand the Borrower's capacity to generate productiveinnovation in knowledge-based areas by: (a) facilitating the creation of new knowledge-basedcompanies; (b) developing specialized human capital; (c) supporting productive researchinnovation activities and their technology commercialization in the areas of biotechnology,nanotechnology and information and communication technology; (d) upgrading the researchinfrastructure in the areas of science, technology and productive innovation; and (e) strengtheningthe policy framework governing science, technology, and productive innovation.</v>
+        <v>The objective of the Project is to strengthen the capacity of the Borrower’s epidemiological health surveillance system to: (a) prevent, monitor and evaluate influenza activity and (b) control epidemic waves of A/H1N1 influenza.</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Argentina: Proyecto de restauración ambiental minera</v>
+        <v>Argentina: Financiamiento adicional para el Proyecto de Infraestructura Vial Provincial</v>
       </c>
       <c r="B55" t="str">
         <v>Argentina</v>
       </c>
       <c r="C55" t="str">
-        <v>P110462</v>
+        <v>P114018</v>
       </c>
       <c r="D55" t="str">
-        <v>30.00</v>
+        <v>175.00</v>
       </c>
       <c r="E55" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F55" t="str">
-        <v>2008-07-31T00:00:00Z</v>
+        <v>2010-01-12T00:00:00Z</v>
       </c>
       <c r="G55" t="str">
-        <v>2017-12-21T00:00:00Z</v>
+        <v>2018-01-18T00:00:00Z</v>
       </c>
       <c r="H55" t="str">
-        <v>The development objectives of the project are to: (a) strengthen Government of Argentina's capacity to assess and mitigate environmental risks associated with closed uranium mines, processing sites, and related mining sector investments in accordance with international good practice; and (b) reduce potential economic and health damages associated with a closed uranium mining site in Malargue, Mendoza.</v>
+        <v>The objectives of the Project are: (a) to improve the primary paved road sectorassets of Participating Provinces I; and (b) to enh ance the DPVs’ capacity to manage andadminister said road assets, so as to facilitate the transport of products within theBorrow er’s territory.</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>ARGENTINA: SISTEMA DE IDENTIFICACIÓN NACIONAL TRIBUTARIO Y SOCIAL. SEGUNDO PRÉSTAMO</v>
+        <v>City Development Strategies for the Province of Buenos Aires, Argentina</v>
       </c>
       <c r="B56" t="str">
         <v>Argentina</v>
       </c>
       <c r="C56" t="str">
-        <v>P101171</v>
+        <v>P119827</v>
       </c>
       <c r="D56" t="str">
-        <v>20.00</v>
+        <v>0.42</v>
       </c>
       <c r="E56" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F56" t="str">
-        <v>2008-07-10T00:00:00Z</v>
+        <v>2009-12-02T00:00:00Z</v>
       </c>
       <c r="G56" t="str">
-        <v>2013-03-15T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
       </c>
       <c r="H56" t="str">
-        <v>The project's development objective is to identify social and/or fiscal attributes of physical and legal persons in Argentina, through a sustainable information exchange system, aimed at improving the efficiency, effectiveness, and impact of social services and fiscal programs at all levels of government in Argentina.  The specific objectives to be pursued under this operation are: 1.to expand and consolidate the network underlying the exchange of social and fiscal information among public agencies at the national, provincial, and municipal levels of government, with provisions to ensure data protection, accessibility, and the quality and accuracy of information; and 2.to consolidate the institutionalization of SINTyS as an independent national entity responsible for coordinating and setting standards governing the exchange of information within Argentina's public sector.</v>
+        <v>The objective of the Project is to improve the quality of life and the quality of basic municipal services through the provision of water supply and sanitation, urban drainage, and roads infrastructure in an equitable and fiscally sustainable manner.</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Argentina: Gestión sostenible de los recursos naturales (antes, Desarrollo forestal sostenible)</v>
+        <v>Proyecto de Transporte Urbano en Zonas Metropolitanas</v>
       </c>
       <c r="B57" t="str">
         <v>Argentina</v>
       </c>
       <c r="C57" t="str">
-        <v>P100806</v>
+        <v>P095485</v>
       </c>
       <c r="D57" t="str">
-        <v>60.00</v>
+        <v>150.00</v>
       </c>
       <c r="E57" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F57" t="str">
-        <v>2008-03-18T00:00:00Z</v>
+        <v>2009-10-20T00:00:00Z</v>
       </c>
       <c r="G57" t="str">
-        <v>2016-04-12T00:00:00Z</v>
+        <v>2020-06-29T00:00:00Z</v>
       </c>
       <c r="H57" t="str">
-        <v>Improve the sustainable and efficient management of forest resources, conserve biodiversity in protected areas and forest landscapes, and integrate small producers into forestry development and conservation.</v>
+        <v>The overall development objective of the program is to improve the quality and sustainability of urban transport systems in Argentine Metropolitan Areas, through the improvement of sectoral decision making frameworks and by giving priority to public transport modes in the urban transport sector. The project (APL1) development objectives contribute to the overall program development objective by: (i) supporting the design and creation of a multijurisdictional Metropolitan Transport Agency for the Buenos Aires Metropolitan Area (AMBA); (ii) strengthening the institutional capacity of the transport authorities in decision making, planning, priority setting, and resource allocation in urban transport; (iii) improving the quality and performance of urban transport infrastructure and/orservices in medium size Metropolitan Areas; and (iv) improving the physical integration and access to public transport networks in the Buenos Aires Metropolitan Area.</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Argentina: Proyecto de desarrollo de pequeños productores agropecuarios (PROINDER) (financiamiento adicional)</v>
+        <v>Argentina Basic Protection Project</v>
       </c>
       <c r="B58" t="str">
         <v>Argentina</v>
       </c>
       <c r="C58" t="str">
-        <v>P102446</v>
+        <v>P115183</v>
       </c>
       <c r="D58" t="str">
-        <v>45.00</v>
+        <v>450.00</v>
       </c>
       <c r="E58" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F58" t="str">
-        <v>2007-07-17T00:00:00Z</v>
+        <v>2009-06-09T00:00:00Z</v>
       </c>
       <c r="G58" t="str">
-        <v>2017-01-12T00:00:00Z</v>
+        <v>2016-06-03T00:00:00Z</v>
       </c>
       <c r="H58" t="str">
-        <v>PDO 1: Increased productive and organizational capacity in participating poor, rural communities.  PDO 2: Greater emphasis on rural poverty issues in the sectoral agenda and improved coordination of rural development programs and policies. PDO 3: Financial assistance provided to poor, rural producers in areas declared in flood emergency or disaster.</v>
+        <v>The project development objective is to increase the effectiveness of Argentina's income transfer programs for the unemployed and families with children and to create the preconditions for expansion of the safety net. The specific objectives are to: (a)Help the Government to protect expenditures on core income transfer programs, at a time of increasing fiscal pressures; (b)Support the expansion of the Seguro program (Employment Benefit and Training), aimed at increasing employability of unemployed and informal sector workers through temporary cash support, training, and job placement services. (c)Support the Government's strategy to reform the Family Allowances program that provides income transfers to families of lower income formal sector workers, increasing transparency and accountability, and setting the operational pre-conditions for a possible expansion of coverage in the near future. (d)Enhance the capacity of the Government to monitor poverty and social protection, through technical assistance for the design and implementation of a national Social Protection Survey and the improvement of analytical capacity.</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Argentina: Proyecto de capacitación y aprendizaje permanente</v>
+        <v>Programa de Préstamos Adaptables para el Desarrollo Sostenible de la Cuenca Matanza-Riachuelo</v>
       </c>
       <c r="B59" t="str">
         <v>Argentina</v>
       </c>
       <c r="C59" t="str">
-        <v>P095514</v>
+        <v>P105680</v>
       </c>
       <c r="D59" t="str">
-        <v>200.00</v>
+        <v>840.00</v>
       </c>
       <c r="E59" t="str">
-        <v>Cerrado</v>
+        <v>Activo</v>
       </c>
       <c r="F59" t="str">
-        <v>2007-06-28T00:00:00Z</v>
+        <v>2009-06-09T00:00:00Z</v>
       </c>
       <c r="G59" t="str">
-        <v>2016-04-12T00:00:00Z</v>
+        <v>2021-04-26T00:00:00Z</v>
       </c>
       <c r="H59" t="str">
-        <v>The proposed Project aims at supporting the Government of Argentina to consolidate, strengthen, and increase the coverage of a lifelong learning and competency-based training system for disadvantaged adults 18 years or older with the objectives for those who participate to: (i) enhance employability (for unemployed); and (ii) improve career opportunities (for employed).</v>
+        <v>The overall development objective of the proposed APL program supports the Government's Integrated Basin Cleanup whilesimultaneously  improving sanitary conditions along the banks of La Plata River and providing a long-term and cost-effectivesolution for safe dispo sal of wastewater from the Buenos Aires Metropolitan Area (AySAs concession area). The two stage APL programthat contributes to this  objective and the allocation of works and activities under each APL has been specifically designed toensure that APL-1 can be free- standing, with no stranded assets at the end of the first stage.  The project (APL-1) development objectives contribute to the o verall program development objective by (i) improving sewerageservices in the M-R River Basin and other parts of the Province and Ci ty of Buenos Aires by expanding transport and treatmentcapacity; (ii) supporting a reduction of industrial discharges to the M-R Riv er, through the provision of industrial conversiongrants to small and medium enterprises; (iii) promoting improved decision-making f or environmentally-sustainable land use anddrainage planning, and piloting urban drainage and land use investments, in the M-R River  Basin; and (iv) strengthening ACUMAR#sinstitutional framework for ongoing and sustainable clean-up of the M-R River Basin.</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Argentina: Segunda fase del proyecto de administración de activos de las rutas nacionales</v>
+        <v>Argentina: Proyecto de energías renovables en mercados rurales (PERMER) (financiamiento adicional)</v>
       </c>
       <c r="B60" t="str">
         <v>Argentina</v>
       </c>
       <c r="C60" t="str">
-        <v>P095569</v>
+        <v>P110498</v>
       </c>
       <c r="D60" t="str">
-        <v>400.00</v>
+        <v>50.00</v>
       </c>
       <c r="E60" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F60" t="str">
-        <v>2007-06-28T00:00:00Z</v>
+        <v>2008-11-11T00:00:00Z</v>
       </c>
       <c r="G60" t="str">
-        <v>2018-01-18T00:00:00Z</v>
-      </c>
-      <c r="H60" t="str">
-        <v>The overall purpose of the program is to further develop and implement an efficient road network management strategy, bringing about the necessary resources to preserve the national road network in the long term. This is a key condition towards increasing the competitiveness of the economy and supporting a sustainable path of economic growth and poverty reduction: a.Preserve the condition of vital road assets, through the gradual expansion of performance-based contracts for the rehabilitation and maintenance of the non-concessioned primary paved network; b.Strengthen road sector management through carrying out a renewal program of DNV to revitalize its role in the sector by: (i) reinforcing its human resource base, (ii) consolidating its transformation into a results-oriented organization accountable for specific outputs; (iii) introducing a systematic approach to bridge management and (iv) enhancing road safety.</v>
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Argentina: Proyecto de infraestructura en la provincial de Buenos Aires (APL-2)</v>
+        <v>ARGENTINA (FMAM): Proyecto de transporte sostenible y calidad del aire</v>
       </c>
       <c r="B61" t="str">
         <v>Argentina</v>
       </c>
       <c r="C61" t="str">
-        <v>P105288</v>
+        <v>P114008</v>
       </c>
       <c r="D61" t="str">
-        <v>270.00</v>
+        <v>3.99</v>
       </c>
       <c r="E61" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F61" t="str">
-        <v>2007-06-28T00:00:00Z</v>
+        <v>2008-11-04T00:00:00Z</v>
       </c>
       <c r="G61" t="str">
-        <v>2014-08-08T00:00:00Z</v>
+        <v>2018-01-18T00:00:00Z</v>
       </c>
       <c r="H61" t="str">
-        <v>The overall purpose of the program is to improve the provision of infrastructure services in the Province within a framework offiscal responsibility. Through improved services the Project aims to support the return to a sustainable path of economic growth, to alleviate poverty and to increase social equity. To this end, the Province prioritized a set of interventions through the sector wide Infrastructure Program for the period 2005-2012 specifically aimed to: i.    Develop a multi-year public expenditure program, in line with the priorities of the Province, to implement the InfrastructureProgram following sound fiscal policies to ensure convergencetowards a long-term sustainable fiscal framework. ii.    Improve and maintain high priority segments of the non-concessioned paved road network to support the reactivation of the provincial economy and strengthen regional competitiveness. iii.    Enhance access to water, sewerage, sanitation and urban drainage services, especially for the low-income segments of the population living in highly vulnerable areas of the Conurbano Bonaerense.  The specific Project Development Objective is to improve the social and environmental welfare of approximately 5,000,000 people through the improved provision of transport, water and sanitation and drainage services.</v>
+        <v>The Argentina Project follows the higher level objectives of the Regional Program, and have a common focus in assisting participant cities in: (i) towards reducing GHG emissions by increasing use of less energy intensive transport modes in cities; and (ii) inducing policy changes in favor of sustainable transport projects.</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Segundo proyecto de modernización del Estado</v>
+        <v>Segundo programa de servicios agrícolas provinciales</v>
       </c>
       <c r="B62" t="str">
         <v>Argentina</v>
       </c>
       <c r="C62" t="str">
-        <v>P101170</v>
+        <v>P106684</v>
       </c>
       <c r="D62" t="str">
-        <v>20.00</v>
+        <v>300.00</v>
       </c>
       <c r="E62" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F62" t="str">
-        <v>2007-05-29T00:00:00Z</v>
+        <v>2008-09-25T00:00:00Z</v>
       </c>
       <c r="G62" t="str">
-        <v>2014-10-01T00:00:00Z</v>
+        <v>2017-03-10T00:00:00Z</v>
       </c>
       <c r="H62" t="str">
-        <v>The project would contribute to a (i) strengthened capacity of the CCO to carry out its mandate in key public sector management areas for improved coordination, monitoring and evaluation; and to (ii) the increased use of modern e-government, procurement, human resource management and social accountability tools as well as improved capacity for investment promotion.</v>
+        <v>To increase the productivity and sales volume of small and medium-size producers.  To achieve this, the project's strategy involves technical assistance (TA), capacity-building activities, and direct investments that contribute to long-term improvements in agricultural productivity, as well as competitiveness and market access.</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Buenos Aires Urban Transport -PTUBA - Additional Financing</v>
+        <v>Argentina: Fomento de la innovación productiva</v>
       </c>
       <c r="B63" t="str">
         <v>Argentina</v>
       </c>
       <c r="C63" t="str">
-        <v>P104984</v>
+        <v>P106752</v>
       </c>
       <c r="D63" t="str">
-        <v>100.00</v>
+        <v>150.00</v>
       </c>
       <c r="E63" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F63" t="str">
-        <v>2007-03-27T00:00:00Z</v>
+        <v>2008-09-25T00:00:00Z</v>
       </c>
       <c r="G63" t="str">
-        <v>2018-01-18T00:00:00Z</v>
+        <v>2020-04-20T00:00:00Z</v>
       </c>
       <c r="H63" t="str">
-        <v>Help in developing integrated urban transport strategies in Argentina's largest Metropolitan Areas.</v>
+        <v>The Objective of the Project is to expand the Borrower's capacity to generate productiveinnovation in knowledge-based areas by: (a) facilitating the creation of new knowledge-basedcompanies; (b) developing specialized human capital; (c) supporting productive researchinnovation activities and their technology commercialization in the areas of biotechnology,nanotechnology and information and communication technology; (d) upgrading the researchinfrastructure in the areas of science, technology and productive innovation; and (e) strengtheningthe policy framework governing science, technology, and productive innovation.</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Infraestructura vial en Santa Fe, Argentina</v>
+        <v>Argentina: Proyecto de restauración ambiental minera</v>
       </c>
       <c r="B64" t="str">
         <v>Argentina</v>
       </c>
       <c r="C64" t="str">
-        <v>P099051</v>
+        <v>P110462</v>
       </c>
       <c r="D64" t="str">
-        <v>126.70</v>
+        <v>30.00</v>
       </c>
       <c r="E64" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F64" t="str">
-        <v>2007-02-13T00:00:00Z</v>
+        <v>2008-07-31T00:00:00Z</v>
       </c>
       <c r="G64" t="str">
-        <v>2018-01-18T00:00:00Z</v>
+        <v>2017-12-21T00:00:00Z</v>
       </c>
       <c r="H64" t="str">
-        <v>The overall purpose of the project is to improve transport conditions along a strategic road corridor that links the Province of Santa Fe with regional and international markets. Adding capacity to National Road 19, a key component of a major bi-oceanic corridor that links the PSF and the Center Region with Chile and Brazil will reduce logistics costs, facilitate access to major regional consumption and export markets and foster the effective economic integration of the Center Region provinces</v>
+        <v>The development objectives of the project are to: (a) strengthen Government of Argentina's capacity to assess and mitigate environmental risks associated with closed uranium mines, processing sites, and related mining sector investments in accordance with international good practice; and (b) reduce potential economic and health damages associated with a closed uranium mining site in Malargue, Mendoza.</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Argentina: Proyecto de desarrollo agrícola provincial (financiamiento adicional). Préstamo 7425-0 AR</v>
+        <v>ARGENTINA: SISTEMA DE IDENTIFICACIÓN NACIONAL TRIBUTARIO Y SOCIAL. SEGUNDO PRÉSTAMO</v>
       </c>
       <c r="B65" t="str">
         <v>Argentina</v>
       </c>
       <c r="C65" t="str">
-        <v>P102316</v>
+        <v>P101171</v>
       </c>
       <c r="D65" t="str">
-        <v>37.00</v>
+        <v>20.00</v>
       </c>
       <c r="E65" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F65" t="str">
-        <v>2007-01-23T00:00:00Z</v>
+        <v>2008-07-10T00:00:00Z</v>
       </c>
       <c r="G65" t="str">
-        <v>2016-04-12T00:00:00Z</v>
+        <v>2013-03-15T00:00:00Z</v>
       </c>
       <c r="H65" t="str">
-        <v>1. To increase and diversify agricultural production and exports through intensifying land use, increasing productivity per hectare, and introducing new crops and modern varieties.  2. To increase and stabilize the agricultural incomes of about 120,000 small and medium-sized commercial farms. 3. To improve the effectiveness of basic agricultural support services to increase the international competitiveness of agricultural products, by introducing new and more productive technologies, increasing quality and improving sanitary conditions of products, and eradicating diseases that limit access to international markets. 4. To improve rural productive infrastructure to reduce production and marketing costs, through a significant reduction in the risk of losses (crops, livestock, equipment and facilities), as well as more efficient use and better conservation and management of natural resources. 5. To strengthen national and provincial institutional capacity to formulate and analyze sectoral development policy, as well as to identify, prepare and implement investment projects. 6.  To rationalize public investments and promote an expanded private sector role (e.g., farmers' organizations, NGOs, and service providers) in agricultural development. 7.  Improve maternal and child health through the delivery of quality services, and to strengthen disease surveillance and control activities, all for purposes of reducing the acute risk of disease in the Borrower's territory.</v>
+        <v>The project's development objective is to identify social and/or fiscal attributes of physical and legal persons in Argentina, through a sustainable information exchange system, aimed at improving the efficiency, effectiveness, and impact of social services and fiscal programs at all levels of government in Argentina.  The specific objectives to be pursued under this operation are: 1.to expand and consolidate the network underlying the exchange of social and fiscal information among public agencies at the national, provincial, and municipal levels of government, with provisions to ensure data protection, accessibility, and the quality and accuracy of information; and 2.to consolidate the institutionalization of SINTyS as an independent national entity responsible for coordinating and setting standards governing the exchange of information within Argentina's public sector.</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Argentina: Proyecto de funciones esenciales de la salud pública</v>
+        <v>Proyecto de eficiencia energética</v>
       </c>
       <c r="B66" t="str">
         <v>Argentina</v>
       </c>
       <c r="C66" t="str">
-        <v>P090993</v>
+        <v>P090119</v>
       </c>
       <c r="D66" t="str">
-        <v>220.00</v>
+        <v>15.16</v>
       </c>
       <c r="E66" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F66" t="str">
-        <v>2006-11-21T00:00:00Z</v>
+        <v>2008-06-26T00:00:00Z</v>
       </c>
       <c r="G66" t="str">
-        <v>2013-05-09T00:00:00Z</v>
+        <v>2018-03-06T00:00:00Z</v>
       </c>
       <c r="H66" t="str">
-        <v>The Project's development objectives are to: (i) increase the coverage of ten prioritized Public Health Programs; (ii) reducepopulation's exposure to principal risk factors associated with collective illness; and (iii) improve the stewardship role andappropriate regulatory environment of the Nation's public health system. The Project aims to support Argentina's Federal HealthPlan and its objectives to reduce mortality and morbidity associated with collective illness.</v>
+        <v>To reduce greenhouse emissions by removing the regulatory, financing and informational barriers  that prevent activities andinvestme nts in energy efficiency and energy conservation.</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v xml:space="preserve">Segundo préstamo adaptable para programas de inversión en salud materno infantil provincial en Argentina </v>
+        <v>Argentina: Gestión sostenible de los recursos naturales (antes, Desarrollo forestal sostenible)</v>
       </c>
       <c r="B67" t="str">
         <v>Argentina</v>
       </c>
       <c r="C67" t="str">
-        <v>P095515</v>
+        <v>P100806</v>
       </c>
       <c r="D67" t="str">
-        <v>300.00</v>
+        <v>60.00</v>
       </c>
       <c r="E67" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F67" t="str">
-        <v>2006-11-02T00:00:00Z</v>
+        <v>2008-03-18T00:00:00Z</v>
       </c>
       <c r="G67" t="str">
-        <v>2013-05-09T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
       </c>
       <c r="H67" t="str">
-        <v>The project development objectives are: (a) to increase access by eligible uninsured mothers and children to basic  health services;   (b) to strengthen the incentive framework for efficiency and focus on results between the national level and the Eligible Provinces and among Eligible Provinces and service providers by linking financing to both services actually rendered to the target populationand to the achievement of the MCHIP results as reflected by the selected ten tracers of the Trazadoras Matrix.</v>
+        <v>Improve the sustainable and efficient management of forest resources, conserve biodiversity in protected areas and forest landscapes, and integrate small producers into forestry development and conservation.</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v xml:space="preserve">Infraestructura vial en Córdoba, Argentina </v>
+        <v>ARGENTINA: CAPTACIÓN DE GAS DE RELLENO SANITARIO EN SALTA</v>
       </c>
       <c r="B68" t="str">
         <v>Argentina</v>
       </c>
       <c r="C68" t="str">
-        <v>P099585</v>
+        <v>P101253</v>
       </c>
       <c r="D68" t="str">
-        <v>75.00</v>
+        <v>0.71</v>
       </c>
       <c r="E68" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F68" t="str">
-        <v>2006-07-11T00:00:00Z</v>
+        <v>2007-09-14T00:00:00Z</v>
       </c>
       <c r="G68" t="str">
-        <v>2018-01-18T00:00:00Z</v>
+        <v>2018-01-15T00:00:00Z</v>
       </c>
       <c r="H68" t="str">
-        <v>Improve the reliability of the Province's road sector assets and the efficiency of their management as a means to support the Province's competitiveness and economic growth, by building up institutional capacity to encourage efficient planning policies and adequate resource allocation for the rehabilitation and maintenance of the core provincial road network.</v>
+        <v>The project aims to help mitigate climate change through the effective reduction of 79,664 tC02e caused by the methane (GHG) generated in the municipal landfill of Salta, through recovery and flaring of the methane collected at the landfill.</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v xml:space="preserve">Argentina – Segundo préstamo adaptable para programas de drenaje y prevención de inundaciones urbanas </v>
+        <v>Argentina: Proyecto de desarrollo de pequeños productores agropecuarios (PROINDER) (financiamiento adicional)</v>
       </c>
       <c r="B69" t="str">
         <v>Argentina</v>
       </c>
       <c r="C69" t="str">
-        <v>P093491</v>
+        <v>P102446</v>
       </c>
       <c r="D69" t="str">
-        <v>70.00</v>
+        <v>45.00</v>
       </c>
       <c r="E69" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F69" t="str">
-        <v>2006-06-06T00:00:00Z</v>
+        <v>2007-07-17T00:00:00Z</v>
       </c>
       <c r="G69" t="str">
-        <v>2015-07-30T00:00:00Z</v>
+        <v>2017-01-12T00:00:00Z</v>
       </c>
       <c r="H69" t="str">
-        <v>The project would help reduce vulnerability of Argentina to flooding, through a mix of physical, institutional and financial measures.  It will be the second phase of an APL, planned over the next 7 years. While phase 1 of the program develops a risk management program for the City of Buenos Aires, phase 2 develops a risk management program for six provinces complying with the selection criteria, and undertakes preparation of the future operations.  The measures will aim at improving the security of economic assets and persons living in flood-prone areas by constructing defense facilities to reduce future losses due to floods, and by strengthening national and provincial institutions and systems for dealing with future floods. These provinces (Chaco, Corrientes, Misiones, Santa Fe, Formosa and Entre Rios), are located along the two main rivers, the Paran? and Paraguay, constituting the Argentinean region most vulnerable to flooding. The provinces have started to develop a risk management strategy under the current Flood Protection Project (4117-AR), and they succeeded in achieving positive results in risk identification and mitigation.  In addition, the provinces will build on the achievements and experience from the City of Buenos Aires in phase1.</v>
+        <v>PDO 1: Increased productive and organizational capacity in participating poor, rural communities.  PDO 2: Greater emphasis on rural poverty issues in the sectoral agenda and improved coordination of rural development programs and policies. PDO 3: Financial assistance provided to poor, rural producers in areas declared in flood emergency or disaster.</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Proyecto de servicios municipales básicos</v>
+        <v>Proyecto de conservación de la biodiversidad en plantaciones forestales</v>
       </c>
       <c r="B70" t="str">
         <v>Argentina</v>
       </c>
       <c r="C70" t="str">
-        <v>P060484</v>
+        <v>P094425</v>
       </c>
       <c r="D70" t="str">
-        <v>110.00</v>
+        <v>7.00</v>
       </c>
       <c r="E70" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F70" t="str">
-        <v>2006-06-06T00:00:00Z</v>
+        <v>2007-06-28T00:00:00Z</v>
       </c>
       <c r="G70" t="str">
-        <v>2015-06-05T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
       </c>
       <c r="H70" t="str">
-        <v>The objective of the Project is to improve the quality of life and the quality of basic municipal services through the provision of water supply and sanitation, urban drainage, and roads infrastructure in an equitable and fiscally sustainable manner.</v>
+        <v>Improve the sustainable and efficient management of forest resources, conserve biodiversity in protected areas and forest landscapes, and integrate small producers into forestry development and conservation.</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Proyecto de transición para jefes de hogar</v>
+        <v>Argentina: Proyecto de capacitación y aprendizaje permanente</v>
       </c>
       <c r="B71" t="str">
         <v>Argentina</v>
       </c>
       <c r="C71" t="str">
-        <v>P055483</v>
+        <v>P095514</v>
       </c>
       <c r="D71" t="str">
-        <v>350.00</v>
+        <v>200.00</v>
       </c>
       <c r="E71" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F71" t="str">
-        <v>2006-03-23T00:00:00Z</v>
+        <v>2007-06-28T00:00:00Z</v>
       </c>
       <c r="G71" t="str">
         <v>2016-04-12T00:00:00Z</v>
       </c>
       <c r="H71" t="str">
-        <v>The Project Development Objectives are to help: (i) reduce poverty by supporting  the workfare component of the Heads of Household Program, including continued i mprovements in Program management and governance; and (ii) promote activities ai med at getting more beneficiaries of this Program into full-time employment, the reby enabling them to graduate from the Program.  Activities to promote labor ma rket participation by beneficiaries would include: (i) workfare sub-projects des igned especially to promote employability, for example, by combining them with t raining, skill certification, and targets for job placement; (ii) support for pr oductive micro-projects; and (iii) the establishment and support to municipal of fices of employment services.</v>
+        <v>The proposed Project aims at supporting the Government of Argentina to consolidate, strengthen, and increase the coverage of a lifelong learning and competency-based training system for disadvantaged adults 18 years or older with the objectives for those who participate to: (i) enhance employability (for unemployed); and (ii) improve career opportunities (for employed).</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Proyecto nacional de manejo de residuos sólidos urbanos</v>
+        <v>Argentina: Segunda fase del proyecto de administración de activos de las rutas nacionales</v>
       </c>
       <c r="B72" t="str">
         <v>Argentina</v>
       </c>
       <c r="C72" t="str">
-        <v>P089926</v>
+        <v>P095569</v>
       </c>
       <c r="D72" t="str">
-        <v>40.00</v>
+        <v>400.00</v>
       </c>
       <c r="E72" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F72" t="str">
-        <v>2006-02-28T00:00:00Z</v>
+        <v>2007-06-28T00:00:00Z</v>
       </c>
       <c r="G72" t="str">
-        <v>2015-06-05T00:00:00Z</v>
+        <v>2018-01-18T00:00:00Z</v>
       </c>
       <c r="H72" t="str">
-        <v>The development objective of this project is to improve public health and quality of life by developing environmentally and financially sustainable systems for urban solid waste management in Argentina.</v>
+        <v>The overall purpose of the program is to further develop and implement an efficient road network management strategy, bringing about the necessary resources to preserve the national road network in the long term. This is a key condition towards increasing the competitiveness of the economy and supporting a sustainable path of economic growth and poverty reduction: a.Preserve the condition of vital road assets, through the gradual expansion of performance-based contracts for the rehabilitation and maintenance of the non-concessioned primary paved network; b.Strengthen road sector management through carrying out a renewal program of DNV to revitalize its role in the sector by: (i) reinforcing its human resource base, (ii) consolidating its transformation into a results-oriented organization accountable for specific outputs; (iii) introducing a systematic approach to bridge management and (iv) enhancing road safety.</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v xml:space="preserve">Programa subnacional de modernización del sector público </v>
+        <v>Argentina: Proyecto de infraestructura en la provincial de Buenos Aires (APL-2)</v>
       </c>
       <c r="B73" t="str">
         <v>Argentina</v>
       </c>
       <c r="C73" t="str">
-        <v>P070448</v>
+        <v>P105288</v>
       </c>
       <c r="D73" t="str">
-        <v>40.00</v>
+        <v>270.00</v>
       </c>
       <c r="E73" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F73" t="str">
-        <v>2005-12-15T00:00:00Z</v>
+        <v>2007-06-28T00:00:00Z</v>
       </c>
       <c r="G73" t="str">
-        <v>2013-10-02T00:00:00Z</v>
+        <v>2014-08-08T00:00:00Z</v>
       </c>
       <c r="H73" t="str">
-        <v>The project aims at improving the capabilities of the provincial governments and  their municipalities to more effectively manage their resources and improve the  quality of government administrative services. Its specific objectives are: i) to support the integrated development and adoption of basic management tools tha t are conducive to the efficient and transparent management of provincial and mu nicipal resources; ii) to strengthen provincial governments in such key areas as  those related to land tax and tax administration, human resources management, j udicial services, civil registries, control entities and public safety functions ; and iii) to support the strengthening of municipal governments through pilot a ctivities designed to demonstrate the benefits of integrated modernization effor ts.</v>
+        <v>The overall purpose of the program is to improve the provision of infrastructure services in the Province within a framework offiscal responsibility. Through improved services the Project aims to support the return to a sustainable path of economic growth, to alleviate poverty and to increase social equity. To this end, the Province prioritized a set of interventions through the sector wide Infrastructure Program for the period 2005-2012 specifically aimed to: i.    Develop a multi-year public expenditure program, in line with the priorities of the Province, to implement the InfrastructureProgram following sound fiscal policies to ensure convergencetowards a long-term sustainable fiscal framework. ii.    Improve and maintain high priority segments of the non-concessioned paved road network to support the reactivation of the provincial economy and strengthen regional competitiveness. iii.    Enhance access to water, sewerage, sanitation and urban drainage services, especially for the low-income segments of the population living in highly vulnerable areas of the Conurbano Bonaerense.  The specific Project Development Objective is to improve the social and environmental welfare of approximately 5,000,000 people through the improved provision of transport, water and sanitation and drainage services.</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Proyecto de mejoramiento de la educación rural en Argentina  - PROMER</v>
+        <v>Greenhouse Gases Reduction by Using Citrus Residues in Tucuman</v>
       </c>
       <c r="B74" t="str">
         <v>Argentina</v>
       </c>
       <c r="C74" t="str">
-        <v>P070963</v>
+        <v>P108741</v>
       </c>
       <c r="D74" t="str">
-        <v>150.00</v>
+        <v>0.11</v>
       </c>
       <c r="E74" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F74" t="str">
-        <v>2005-12-15T00:00:00Z</v>
+        <v>2007-06-15T00:00:00Z</v>
       </c>
       <c r="G74" t="str">
-        <v>2014-04-18T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
       </c>
       <c r="H74" t="str">
-        <v>The Project's Development Objective is to support national Government policy to: (i) improve the coverage, efficiency, and qualityof the Argentine education system, and (ii) to improve the governance of the Argentine education system through strengthening of thenormative, planning, information, monitoring, and evaluation capacity at the national and provincial levels.</v>
+        <v>The project will utilize the residues of a citrus processing plant to generate biogas, thereby reducing effluents and green house gas emissions. Key stakeholders of this subproject are citric companies, and several small communities located near rivers and streams in the target area. Grant amount:  US$109,133.</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Fortalecimiento institucional - ANSES II TA</v>
+        <v>Sustainable Indigenous Communities in High Valleys North of Iruya</v>
       </c>
       <c r="B75" t="str">
         <v>Argentina</v>
       </c>
       <c r="C75" t="str">
-        <v>P092836</v>
+        <v>P108742</v>
       </c>
       <c r="D75" t="str">
-        <v>25.00</v>
+        <v>0.10</v>
       </c>
       <c r="E75" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F75" t="str">
-        <v>2005-07-05T00:00:00Z</v>
+        <v>2007-06-15T00:00:00Z</v>
       </c>
       <c r="G75" t="str">
-        <v>2013-06-12T00:00:00Z</v>
+        <v>2015-03-05T00:00:00Z</v>
       </c>
       <c r="H75" t="str">
-        <v>Building on the achievements of the first operation, the project development objective is to enhance service-delivery by ANSES by improving its efficiency, effectiveness, transparency and accountability through institutional reengineering, fraud and error detection, change management and greater internal and external oversight, as well as institutional strengthening of the Social Security Secretariat. In particular, the proposed project will: (i) consolidate and expand selected organizational reforms of ANSES through business process reengineering, integration and automation of core processes, functions, and products, and ICT investments for continuous dynamic change with a view to improve the efficiency and effectiveness of service-delivery; (ii) support the institutional strengthening of the Social Security Secretariat to enhance its policymaking and oversight functions, strengthen the accountability of ANSES and other social security institutions, and promote outreach to other stakeholders; (iii) enhance access to information and exchange of information, help fraud and error detection in benefit determination and liquidation, and promote effective channels for citizen engagement and oversight, with a view to improve internal and external transparency and citizen participation; and (iv) promote change management, innovation, and dissemination of good management practices to enhance project performance and sustainability.</v>
+        <v>This project will promote conservation and restoration of the Andean ecosystem using sustainable indigenous agricultural methods. Pilot irrigation works are planned, as well as implementation of agro-ecological methods with positive environmental impacts.  The indigenous people in the area form the overwhelming majority of direct project beneficiaries and will be fully engaged in project implementation. Nonetheless, community participation processes will require monitoring. Grant amount:  US$103,500.</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v xml:space="preserve">Proyecto de infraestructura vial provincial </v>
+        <v>Prototypes related to the Production and Use of Hydrogen Fuel</v>
       </c>
       <c r="B76" t="str">
         <v>Argentina</v>
       </c>
       <c r="C76" t="str">
-        <v>P070628</v>
+        <v>P108743</v>
       </c>
       <c r="D76" t="str">
-        <v>150.00</v>
+        <v>0.10</v>
       </c>
       <c r="E76" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F76" t="str">
-        <v>2005-06-07T00:00:00Z</v>
+        <v>2007-06-15T00:00:00Z</v>
       </c>
       <c r="G76" t="str">
-        <v>2018-01-18T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
       </c>
       <c r="H76" t="str">
-        <v>The objectives of the Project are: (a) to improve the primary paved road sectorassets of Participating Provinces I; and (b) to enh ance the DPVs’ capacity to manage andadminister said road assets, so as to facilitate the transport of products within theBorrow er’s territory.</v>
+        <v>The project will promote the development and construction of a pilot module to produce hydrogen and use it to generate electricity.  While the project is intended to reduce GHG emissions, caution is required concerning the storage and production of hydrogen. Grant amount: US$100,000.</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Primer préstamo adaptable para programas de drenaje y prevención de inundaciones urbanas</v>
+        <v>Biological Connectivity in the Eco-regional Corridor in Northern Patagonia</v>
       </c>
       <c r="B77" t="str">
         <v>Argentina</v>
       </c>
       <c r="C77" t="str">
-        <v>P088220</v>
+        <v>P108744</v>
       </c>
       <c r="D77" t="str">
-        <v>130.00</v>
+        <v>0.18</v>
       </c>
       <c r="E77" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F77" t="str">
-        <v>2005-04-05T00:00:00Z</v>
+        <v>2007-06-15T00:00:00Z</v>
       </c>
       <c r="G77" t="str">
-        <v>2013-05-01T00:00:00Z</v>
+        <v>2015-03-05T00:00:00Z</v>
       </c>
       <c r="H77" t="str">
-        <v>The proposed APL project, Phase A, would increase The City of Buenos Aires resilience to flooding through protection of its critical infrastructure and the introduction of a risk management approach to the government investment program. The project would focus on the issue of risk identification and reduction through prevention, mitigation, education and training.</v>
+        <v>The project will promote regional land planning through the establishment of regional and sub-regional Management committees and planning models, aiming at improving the biological connectivity of a number of protected areas. The planning process will involve both extensive communications in the region, and specific consultations with stakeholders designed to promote consensus but also address any potential conflicts. Grant amount:  US$178,900.</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v xml:space="preserve">Primera fase del préstamo adaptable para programas de infraestructura en Buenos Aires, Argentina </v>
+        <v>Upper Parana Atlantic Forest Restoration by Small-Farmers</v>
       </c>
       <c r="B78" t="str">
         <v>Argentina</v>
       </c>
       <c r="C78" t="str">
-        <v>P088032</v>
+        <v>P108745</v>
       </c>
       <c r="D78" t="str">
-        <v>200.00</v>
+        <v>0.05</v>
       </c>
       <c r="E78" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F78" t="str">
-        <v>2004-12-07T00:00:00Z</v>
+        <v>2007-06-15T00:00:00Z</v>
       </c>
       <c r="G78" t="str">
-        <v>2015-11-25T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
       </c>
       <c r="H78" t="str">
-        <v>The development objectives (PDOs) of this project are to: (i) enhance the provision of water andsewerage services for the benefitof low-income people, in particular for those peopleliving in highly vulnerable areas; (ii) improve high priority road segments of theBorrower’s road network; (iii) mitigate urban flooding; and (iv) support thereactivation of the Borrower’s economy and strengthen its regional competitiveness.</v>
+        <v>The project will seek the enrichment and restoration of degraded native forest plots to promote biodiversity conservation. The project will also finance nurseries to provide tree seedlings. Grant amount:  US$54,840.</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>AR Economic Recovery Support Structural Adjustment Loan (ERSAL)</v>
+        <v>Conservation of Patagonian Steppe and Southern Andes Fauna</v>
       </c>
       <c r="B79" t="str">
         <v>Argentina</v>
       </c>
       <c r="C79" t="str">
-        <v>P083982</v>
+        <v>P108746</v>
       </c>
       <c r="D79" t="str">
-        <v>500.00</v>
+        <v>0.14</v>
       </c>
       <c r="E79" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F79" t="str">
-        <v>2004-06-29T00:00:00Z</v>
+        <v>2007-06-15T00:00:00Z</v>
       </c>
       <c r="G79" t="str">
-        <v>2018-01-14T00:00:00Z</v>
+        <v>2015-03-05T00:00:00Z</v>
       </c>
       <c r="H79" t="str">
-        <v>The objective of this structural adjustment loan is to support Argentina's efforts to consolidate economic recovery and ensure long-term growth and employment creation through the expansion of domestic enterprise. This will be accomplished through improving the functioning of the financial sector, resolving disputes in public/private contracts in the utilities sector; increasing transparency in the executive and judicial branches of government; improving the investment climate and the enhancement of competitivenss and export potential of existing and new enterprises through systematic productivity gains, quality improvements and innovation.</v>
+        <v>The project will formulate an environmental protection and park management plan for 3 protected areas in Patagonia.  The planning and consultation process will involve key stakeholders, including provincial governments, the National Parks Administration, academicians, extractive industry (mining) companies, local producers, and community stake-holders. Grant amount:  US$138,060.</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Gestión de activos viales nacionales</v>
+        <v>Segundo proyecto de modernización del Estado</v>
       </c>
       <c r="B80" t="str">
         <v>Argentina</v>
       </c>
       <c r="C80" t="str">
-        <v>P088153</v>
+        <v>P101170</v>
       </c>
       <c r="D80" t="str">
-        <v>200.00</v>
+        <v>20.00</v>
       </c>
       <c r="E80" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F80" t="str">
-        <v>2004-06-29T00:00:00Z</v>
+        <v>2007-05-29T00:00:00Z</v>
       </c>
       <c r="G80" t="str">
-        <v>2018-01-18T00:00:00Z</v>
+        <v>2014-10-01T00:00:00Z</v>
       </c>
       <c r="H80" t="str">
-        <v>The overall purpose of the program is to gradually consolidate an efficient road network management strategy, bringing about the necessary resources to preserve the national road network in the long term. Specific Objectives are to:  1. Preserve the condition of vital road assets, through the gradual expansion of performance-based contracts for the rehabilitation and maintenance of the non-concessioned primary paved network; 2. Strengthen road sector management through carrying out a renewal program of DNV to revitalize its role in the sector by: (i) reinforcing its human resource base, (ii) consolidating its transformation into a results-oriented organization accountable for specific outputs; (iii) introducing a systematic approach to bridge management and (iv) enhancing road safety</v>
+        <v>The project would contribute to a (i) strengthened capacity of the CCO to carry out its mandate in key public sector management areas for improved coordination, monitoring and evaluation; and to (ii) the increased use of modern e-government, procurement, human resource management and social accountability tools as well as improved capacity for investment promotion.</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Proyecto de inversión en salud materno infantil provincial en Argentina (primera fase de préstamo adaptable para programas)</v>
+        <v>Buenos Aires Urban Transport -PTUBA - Additional Financing</v>
       </c>
       <c r="B81" t="str">
         <v>Argentina</v>
       </c>
       <c r="C81" t="str">
-        <v>P071025</v>
+        <v>P104984</v>
       </c>
       <c r="D81" t="str">
-        <v>135.80</v>
+        <v>100.00</v>
       </c>
       <c r="E81" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F81" t="str">
-        <v>2004-04-15T00:00:00Z</v>
+        <v>2007-03-27T00:00:00Z</v>
       </c>
       <c r="G81" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2018-01-18T00:00:00Z</v>
       </c>
       <c r="H81" t="str">
-        <v>The proposed loan is an integral part of the Government of Argentina's poverty reduction program and aims to support the implementation of the Maternal and Child Health Insurance Program.  The project will contribute to: (a) stop the increase in infant mortality and further reduce it; (b) support the implementation of a significant change in health service contracting and management at provincial level, and (c) strengthen the stewardship capacity of the national and provincial mi nistries of health.</v>
+        <v>Help in developing integrated urban transport strategies in Argentina's largest Metropolitan Areas.</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Provincial Maternal-Child Hlth Sector Adjustment Ln. (PMCHSAL)</v>
+        <v>Infraestructura vial en Santa Fe, Argentina</v>
       </c>
       <c r="B82" t="str">
         <v>Argentina</v>
       </c>
       <c r="C82" t="str">
-        <v>P072637</v>
+        <v>P099051</v>
       </c>
       <c r="D82" t="str">
-        <v>750.00</v>
+        <v>126.70</v>
       </c>
       <c r="E82" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F82" t="str">
-        <v>2003-10-28T00:00:00Z</v>
+        <v>2007-02-13T00:00:00Z</v>
       </c>
       <c r="G82" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2018-01-18T00:00:00Z</v>
       </c>
       <c r="H82" t="str">
-        <v>The Provincial Maternal-Child Health Sector Adjustment Loan (PMCHSAL) aims to: (a) respond to the urgent health needs of the poor, particularly uninsured mothers and children; and (b) simultaneously, assist the Government to modify the incentive framework for financing and delivery of health care services, starting in Argentina's poorest provinces.</v>
+        <v>The overall purpose of the project is to improve transport conditions along a strategic road corridor that links the Province of Santa Fe with regional and international markets. Adding capacity to National Road 19, a key component of a major bi-oceanic corridor that links the PSF and the Center Region with Chile and Brazil will reduce logistics costs, facilitate access to major regional consumption and export markets and foster the effective economic integration of the Center Region provinces</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Argentina Economic and Social Transition Structural Adjustment Loan</v>
+        <v>Argentina: Proyecto de desarrollo agrícola provincial (financiamiento adicional). Préstamo 7425-0 AR</v>
       </c>
       <c r="B83" t="str">
         <v>Argentina</v>
       </c>
       <c r="C83" t="str">
-        <v>P083074</v>
+        <v>P102316</v>
       </c>
       <c r="D83" t="str">
-        <v>500.00</v>
+        <v>37.00</v>
       </c>
       <c r="E83" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F83" t="str">
-        <v>2003-05-22T00:00:00Z</v>
+        <v>2007-01-23T00:00:00Z</v>
       </c>
       <c r="G83" t="str">
-        <v>2018-01-14T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
+      </c>
+      <c r="H83" t="str">
+        <v>1. To increase and diversify agricultural production and exports through intensifying land use, increasing productivity per hectare, and introducing new crops and modern varieties.  2. To increase and stabilize the agricultural incomes of about 120,000 small and medium-sized commercial farms. 3. To improve the effectiveness of basic agricultural support services to increase the international competitiveness of agricultural products, by introducing new and more productive technologies, increasing quality and improving sanitary conditions of products, and eradicating diseases that limit access to international markets. 4. To improve rural productive infrastructure to reduce production and marketing costs, through a significant reduction in the risk of losses (crops, livestock, equipment and facilities), as well as more efficient use and better conservation and management of natural resources. 5. To strengthen national and provincial institutional capacity to formulate and analyze sectoral development policy, as well as to identify, prepare and implement investment projects. 6.  To rationalize public investments and promote an expanded private sector role (e.g., farmers' organizations, NGOs, and service providers) in agricultural development. 7.  Improve maternal and child health through the delivery of quality services, and to strengthen disease surveillance and control activities, all for purposes of reducing the acute risk of disease in the Borrower's territory.</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Social Protection VI Project - Jefes de Hogar (Heads of Household)</v>
+        <v>Argentina: Proyecto de funciones esenciales de la salud pública</v>
       </c>
       <c r="B84" t="str">
         <v>Argentina</v>
       </c>
       <c r="C84" t="str">
-        <v>P073578</v>
+        <v>P090993</v>
       </c>
       <c r="D84" t="str">
-        <v>600.00</v>
+        <v>220.00</v>
       </c>
       <c r="E84" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F84" t="str">
-        <v>2003-01-28T00:00:00Z</v>
+        <v>2006-11-21T00:00:00Z</v>
       </c>
       <c r="G84" t="str">
-        <v>2016-04-12T00:00:00Z</v>
+        <v>2013-05-09T00:00:00Z</v>
       </c>
       <c r="H84" t="str">
-        <v>Support a social safety net program which, through financing for small infrastructure and productive activities, maintenance, and community services provides temporary employment to poor workers and improves the living standards in poor communities</v>
+        <v>The Project's development objectives are to: (i) increase the coverage of ten prioritized Public Health Programs; (ii) reducepopulation's exposure to principal risk factors associated with collective illness; and (iii) improve the stewardship role andappropriate regulatory environment of the Nation's public health system. The Project aims to support Argentina's Federal HealthPlan and its objectives to reduce mortality and morbidity associated with collective illness.</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>ProFam:  Family Strengthening and Social Capital Promotion</v>
+        <v xml:space="preserve">Segundo préstamo adaptable para programas de inversión en salud materno infantil provincial en Argentina </v>
       </c>
       <c r="B85" t="str">
         <v>Argentina</v>
       </c>
       <c r="C85" t="str">
-        <v>P070374</v>
+        <v>P095515</v>
       </c>
       <c r="D85" t="str">
-        <v>5.00</v>
+        <v>300.00</v>
       </c>
       <c r="E85" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F85" t="str">
-        <v>2001-11-08T00:00:00Z</v>
+        <v>2006-11-02T00:00:00Z</v>
       </c>
       <c r="G85" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2013-05-09T00:00:00Z</v>
       </c>
       <c r="H85" t="str">
-        <v>To test and monitor a social capital approach to address the vulnerability of the poor by targeting families as comprehensive units and promoting gender equity.</v>
+        <v>The project development objectives are: (a) to increase access by eligible uninsured mothers and children to basic  health services;   (b) to strengthen the incentive framework for efficiency and focus on results between the national level and the Eligible Provinces and among Eligible Provinces and service providers by linking financing to both services actually rendered to the target populationand to the achievement of the MCHIP results as reflected by the selected ten tracers of the Trazadoras Matrix.</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>AR SAL 1 (Federal Provincial Fiscal Relations)</v>
+        <v xml:space="preserve">Infraestructura vial en Córdoba, Argentina </v>
       </c>
       <c r="B86" t="str">
         <v>Argentina</v>
       </c>
       <c r="C86" t="str">
-        <v>P073591</v>
+        <v>P099585</v>
       </c>
       <c r="D86" t="str">
-        <v>400.00</v>
+        <v>75.00</v>
       </c>
       <c r="E86" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F86" t="str">
-        <v>2001-08-28T00:00:00Z</v>
+        <v>2006-07-11T00:00:00Z</v>
       </c>
       <c r="G86" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2018-01-18T00:00:00Z</v>
       </c>
       <c r="H86" t="str">
-        <v>Project Development Objective (Note: will be disclosed in the MOS) The loan will support the government's efforts to re-organize and improve the efficiency of social sector expenditures, as well as lead efforts to immprove general fiscal performance , budgeting and planning at the provincial level.  The loan would also address consolidation of structural reform at the federal level, specifically in the areas of tax administration and public sector manangement.  Board Schedule Comments</v>
+        <v>Improve the reliability of the Province's road sector assets and the efficiency of their management as a means to support the Province's competitiveness and economic growth, by building up institutional capacity to encourage efficient planning policies and adequate resource allocation for the rehabilitation and maintenance of the core provincial road network.</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Santa Fe Provincial Reform Adjustment Loan</v>
+        <v>Proyecto de servicios municipales básicos</v>
       </c>
       <c r="B87" t="str">
         <v>Argentina</v>
       </c>
       <c r="C87" t="str">
-        <v>P069913</v>
+        <v>P060484</v>
       </c>
       <c r="D87" t="str">
-        <v>330.00</v>
+        <v>110.00</v>
       </c>
       <c r="E87" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F87" t="str">
-        <v>2001-07-19T00:00:00Z</v>
+        <v>2006-06-06T00:00:00Z</v>
       </c>
       <c r="G87" t="str">
-        <v>2016-04-12T00:00:00Z</v>
+        <v>2015-06-05T00:00:00Z</v>
       </c>
       <c r="H87" t="str">
-        <v>The overall objective of the program supported by the Bank is to help the Province of Santa Fe to reform and restructure its government so as to ensure eficiency, quality and equity in public services, particularly in health, education and social protection, within fiscally sound policies.  Specific objectives include:  A.  Public Finance and Administration (i).    Attaining a fiscal balance (ii).   Modernizing financial management and enhancing transparency (iii).  Economic evaluation of public investments and environmental screening (iv.)  Reducing tax distortions (v).   Modernizing tax administration (vi).  Concessioning electricity distribution to reduce costs B.  Social Protection (i).   Protecting the social safety net (ii).  Modernizing beneficiary registration C.  Education (i).   Protecting education spending (ii).  Improving human resource management systems for teachers and students (iii). Enhancing the use of student/school evaluations (iv).  Strengthening teacher training (v).   Improving the efficieny and equity of private school subsidies. D. Health (i).  Strengthening primary care for the uninsured (ii).  Improving public hospitals (iii). Strengthening the regulatory role of the Ministry of Health (iv). Sustaining the financial balance of the public employee health insurance carrier.</v>
+        <v>The objective of the Project is to improve the quality of life and the quality of basic municipal services through the provision of water supply and sanitation, urban drainage, and roads infrastructure in an equitable and fiscally sustainable manner.</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Segundo proyecto de educación secundaria – Provincia de Buenos Aires</v>
+        <v xml:space="preserve">Argentina – Segundo préstamo adaptable para programas de drenaje y prevención de inundaciones urbanas </v>
       </c>
       <c r="B88" t="str">
         <v>Argentina</v>
       </c>
       <c r="C88" t="str">
-        <v>P064614</v>
+        <v>P093491</v>
       </c>
       <c r="D88" t="str">
-        <v>56.99</v>
+        <v>70.00</v>
       </c>
       <c r="E88" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F88" t="str">
-        <v>2000-12-07T00:00:00Z</v>
+        <v>2006-06-06T00:00:00Z</v>
       </c>
       <c r="G88" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2015-07-30T00:00:00Z</v>
       </c>
       <c r="H88" t="str">
-        <v>1. Increase access to quality education and improve equity by supporting the implementation of a Full-Day Schedule (known as the "Jornada Completa") in selected  EGB3 schools serving students from the poorest households.  2.  Increase school management as a necessary complement to the introduction of a "Full-Day Schedule" in the selected EGB3 schools.</v>
+        <v>The project would help reduce vulnerability of Argentina to flooding, through a mix of physical, institutional and financial measures.  It will be the second phase of an APL, planned over the next 7 years. While phase 1 of the program develops a risk management program for the City of Buenos Aires, phase 2 develops a risk management program for six provinces complying with the selection criteria, and undertakes preparation of the future operations.  The measures will aim at improving the security of economic assets and persons living in flood-prone areas by constructing defense facilities to reduce future losses due to floods, and by strengthening national and provincial institutions and systems for dealing with future floods. These provinces (Chaco, Corrientes, Misiones, Santa Fe, Formosa and Entre Rios), are located along the two main rivers, the Paran? and Paraguay, constituting the Argentinean region most vulnerable to flooding. The provinces have started to develop a risk management strategy under the current Flood Protection Project (4117-AR), and they succeeded in achieving positive results in risk identification and mitigation.  In addition, the provinces will build on the achievements and experience from the City of Buenos Aires in phase1.</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Provincial Reform Loan Project - Cordoba</v>
+        <v>Proyecto de transición para jefes de hogar</v>
       </c>
       <c r="B89" t="str">
         <v>Argentina</v>
       </c>
       <c r="C89" t="str">
-        <v>P068344</v>
+        <v>P055483</v>
       </c>
       <c r="D89" t="str">
-        <v>303.00</v>
+        <v>350.00</v>
       </c>
       <c r="E89" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F89" t="str">
-        <v>2000-11-22T00:00:00Z</v>
+        <v>2006-03-23T00:00:00Z</v>
       </c>
       <c r="G89" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
       </c>
       <c r="H89" t="str">
-        <v>The objective of this structural adjustment loan is to promote an efficient and responsive delivery of public services by the province of Cordoba within fiscally sound policies.</v>
+        <v>The Project Development Objectives are to help: (i) reduce poverty by supporting  the workfare component of the Heads of Household Program, including continued i mprovements in Program management and governance; and (ii) promote activities ai med at getting more beneficiaries of this Program into full-time employment, the reby enabling them to graduate from the Program.  Activities to promote labor ma rket participation by beneficiaries would include: (i) workfare sub-projects des igned especially to promote employability, for example, by combining them with t raining, skill certification, and targets for job placement; (ii) support for pr oductive micro-projects; and (iii) the establishment and support to municipal of fices of employment services.</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Sustainable Fisheries Management Project</v>
+        <v>Proyecto nacional de manejo de residuos sólidos urbanos</v>
       </c>
       <c r="B90" t="str">
         <v>Argentina</v>
       </c>
       <c r="C90" t="str">
-        <v>P057459</v>
+        <v>P089926</v>
       </c>
       <c r="D90" t="str">
-        <v>5.00</v>
+        <v>40.00</v>
       </c>
       <c r="E90" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F90" t="str">
-        <v>2000-09-19T00:00:00Z</v>
+        <v>2006-02-28T00:00:00Z</v>
       </c>
       <c r="G90" t="str">
-        <v>2016-04-12T00:00:00Z</v>
+        <v>2015-06-05T00:00:00Z</v>
       </c>
       <c r="H90" t="str">
-        <v>THE PROJECT WOULD SUPPORT IMPLEMENTATION OF AN INDIVIDUAL TRANSFERABLE QUOTA SYSTEM AND OTHER MEASURES ASSOCIATED WITH IMPROVED, SUSTAINABLE FISHERIES MANAGEMENT INCLUDING ASSISTANCE TO DISPLACED WORKERS. 8/6/2002 - THIS PROJECT WAS APPROVED BY THE BOARD BUT NEVER SIGNED. THE GOVERNMENT DID NOT CONFIRM TO THE BANK THEIR AGREEMENT TO SIGN THE PROJECT WITHIN THE DEADLINE ESTABLISHED BY THE BANK - BEYOND THE 18 MOTH GRACE PERIOD AS PER BANK OPERATIONAL GUDIELINES. CMU DIRECTOR HAS DECIDED TO DROPP PROJECT. 8/6/2002 PROJECT IS SET TO DROP PENDING (BOARD APPROVAL DATE REMOVED) PER MARIA CURZI E-MAIL ON 8/6/2002. OK BY STAEL BALTAR.</v>
+        <v>The development objective of this project is to improve public health and quality of life by developing environmentally and financially sustainable systems for urban solid waste management in Argentina.</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Indigenous Community Development LIL</v>
+        <v xml:space="preserve">Programa subnacional de modernización del sector público </v>
       </c>
       <c r="B91" t="str">
         <v>Argentina</v>
       </c>
       <c r="C91" t="str">
-        <v>P057473</v>
+        <v>P070448</v>
       </c>
       <c r="D91" t="str">
-        <v>5.00</v>
+        <v>40.00</v>
       </c>
       <c r="E91" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F91" t="str">
-        <v>2000-09-18T00:00:00Z</v>
+        <v>2005-12-15T00:00:00Z</v>
       </c>
       <c r="G91" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2013-10-02T00:00:00Z</v>
+      </c>
+      <c r="H91" t="str">
+        <v>The project aims at improving the capabilities of the provincial governments and  their municipalities to more effectively manage their resources and improve the  quality of government administrative services. Its specific objectives are: i) to support the integrated development and adoption of basic management tools tha t are conducive to the efficient and transparent management of provincial and mu nicipal resources; ii) to strengthen provincial governments in such key areas as  those related to land tax and tax administration, human resources management, j udicial services, civil registries, control entities and public safety functions ; and iii) to support the strengthening of municipal governments through pilot a ctivities designed to demonstrate the benefits of integrated modernization effor ts.</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>PROVINCIAL REFORM ADJUSTMENT LOAN - CATAMARCA</v>
+        <v>Proyecto de mejoramiento de la educación rural en Argentina  - PROMER</v>
       </c>
       <c r="B92" t="str">
         <v>Argentina</v>
       </c>
       <c r="C92" t="str">
-        <v>P044447</v>
+        <v>P070963</v>
       </c>
       <c r="D92" t="str">
-        <v>70.70</v>
+        <v>150.00</v>
       </c>
       <c r="E92" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F92" t="str">
-        <v>2000-09-14T00:00:00Z</v>
+        <v>2005-12-15T00:00:00Z</v>
       </c>
       <c r="G92" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2014-04-18T00:00:00Z</v>
       </c>
       <c r="H92" t="str">
-        <v>The overall objective of the program supported by the Bank is to help the Province of Catamarca to reform and restructure its government so as to ensure an efficient and responsive delivery of public services within fiscally sound policies..  Specific objectives are:  A.  Public Finance and Adminsitration: (i).   Improving tax collection and administration to promote higher reliance on own-source revenues and increased accountability; (ii).  Reforming  civil service, including reduction in the wage bill and redundant personnel; improved training and compensation; controls to lower absenteeism and overpayments; and, (iii). Rationalizing public expenditures and prioritizing government spending, with emphasis on privatization and outsourcing to improve the reliability and quality of public services. B.  Education Reform: (i).   Increasing low student/teacher ratios; (ii).  Reducing disproportionate use of temporary and substitute education personnel; (iii). Improving the incentive for quality improvements; (iv). Enhancing private sector participation; and (v).  Reducing administrative costs. C.  Health Reform (i).   Extending coverage to the unisured poor (ii).  Ensuring the financial viability of the provincial health insurance carrier; (iii). Reallocating resources to non-personnel spending; (iv). Promting essential public health services; (v).  Promoting hospital autonomy (vi). Improving integration between primary and secondary health care; and (vii). Accrediting services and quality assurance systems.</v>
+        <v>The Project's Development Objective is to support national Government policy to: (i) improve the coverage, efficiency, and qualityof the Argentine education system, and (ii) to improve the governance of the Argentine education system through strengthening of thenormative, planning, information, monitoring, and evaluation capacity at the national and provincial levels.</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Health Insurance for the Poor Project</v>
+        <v>Fortalecimiento institucional - ANSES II TA</v>
       </c>
       <c r="B93" t="str">
         <v>Argentina</v>
       </c>
       <c r="C93" t="str">
-        <v>P063388</v>
+        <v>P092836</v>
       </c>
       <c r="D93" t="str">
-        <v>4.90</v>
+        <v>25.00</v>
       </c>
       <c r="E93" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F93" t="str">
-        <v>1999-11-24T00:00:00Z</v>
+        <v>2005-07-05T00:00:00Z</v>
       </c>
       <c r="G93" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2013-06-12T00:00:00Z</v>
+      </c>
+      <c r="H93" t="str">
+        <v>Building on the achievements of the first operation, the project development objective is to enhance service-delivery by ANSES by improving its efficiency, effectiveness, transparency and accountability through institutional reengineering, fraud and error detection, change management and greater internal and external oversight, as well as institutional strengthening of the Social Security Secretariat. In particular, the proposed project will: (i) consolidate and expand selected organizational reforms of ANSES through business process reengineering, integration and automation of core processes, functions, and products, and ICT investments for continuous dynamic change with a view to improve the efficiency and effectiveness of service-delivery; (ii) support the institutional strengthening of the Social Security Secretariat to enhance its policymaking and oversight functions, strengthen the accountability of ANSES and other social security institutions, and promote outreach to other stakeholders; (iii) enhance access to information and exchange of information, help fraud and error detection in benefit determination and liquidation, and promote effective channels for citizen engagement and oversight, with a view to improve internal and external transparency and citizen participation; and (iv) promote change management, innovation, and dissemination of good management practices to enhance project performance and sustainability.</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>AR-Pub. Hlth. Surveillance &amp; Disease Control Project (VIGIA)</v>
+        <v xml:space="preserve">Proyecto de infraestructura vial provincial </v>
       </c>
       <c r="B94" t="str">
         <v>Argentina</v>
       </c>
       <c r="C94" t="str">
-        <v>P055482</v>
+        <v>P070628</v>
       </c>
       <c r="D94" t="str">
-        <v>52.50</v>
+        <v>150.00</v>
       </c>
       <c r="E94" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F94" t="str">
-        <v>1999-10-14T00:00:00Z</v>
+        <v>2005-06-07T00:00:00Z</v>
       </c>
       <c r="G94" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2018-01-18T00:00:00Z</v>
+      </c>
+      <c r="H94" t="str">
+        <v>The objectives of the Project are: (a) to improve the primary paved road sectorassets of Participating Provinces I; and (b) to enh ance the DPVs’ capacity to manage andadminister said road assets, so as to facilitate the transport of products within theBorrow er’s territory.</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>ARGENTINA-POLICY BASED GUARANTEE OPERATION</v>
+        <v>Primer préstamo adaptable para programas de drenaje y prevención de inundaciones urbanas</v>
       </c>
       <c r="B95" t="str">
         <v>Argentina</v>
       </c>
       <c r="C95" t="str">
-        <v>P068845</v>
+        <v>P088220</v>
       </c>
       <c r="D95" t="str">
-        <v>250.00</v>
+        <v>130.00</v>
       </c>
       <c r="E95" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F95" t="str">
-        <v>1999-09-16T00:00:00Z</v>
+        <v>2005-04-05T00:00:00Z</v>
       </c>
       <c r="G95" t="str">
-        <v>2018-01-14T00:00:00Z</v>
+        <v>2013-05-01T00:00:00Z</v>
+      </c>
+      <c r="H95" t="str">
+        <v>The proposed APL project, Phase A, would increase The City of Buenos Aires resilience to flooding through protection of its critical infrastructure and the introduction of a risk management approach to the government investment program. The project would focus on the issue of risk identification and reduction through prevention, mitigation, education and training.</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Water Sector Reform Project</v>
+        <v xml:space="preserve">Primera fase del préstamo adaptable para programas de infraestructura en Buenos Aires, Argentina </v>
       </c>
       <c r="B96" t="str">
         <v>Argentina</v>
       </c>
       <c r="C96" t="str">
-        <v>P006046</v>
+        <v>P088032</v>
       </c>
       <c r="D96" t="str">
-        <v>30.00</v>
+        <v>200.00</v>
       </c>
       <c r="E96" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F96" t="str">
-        <v>1999-06-01T00:00:00Z</v>
+        <v>2004-12-07T00:00:00Z</v>
       </c>
       <c r="G96" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2015-11-25T00:00:00Z</v>
+      </c>
+      <c r="H96" t="str">
+        <v>The development objectives (PDOs) of this project are to: (i) enhance the provision of water andsewerage services for the benefitof low-income people, in particular for those peopleliving in highly vulnerable areas; (ii) improve high priority road segments of theBorrower’s road network; (iii) mitigate urban flooding; and (iv) support thereactivation of the Borrower’s economy and strengthen its regional competitiveness.</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Integrated Drug Prevention Pilot Project</v>
+        <v xml:space="preserve">Proyecto de recuperación de gas en vertedero Olavarría </v>
       </c>
       <c r="B97" t="str">
         <v>Argentina</v>
       </c>
       <c r="C97" t="str">
-        <v>P058526</v>
+        <v>P088934</v>
       </c>
       <c r="D97" t="str">
-        <v>4.75</v>
+        <v>0.54</v>
       </c>
       <c r="E97" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F97" t="str">
-        <v>1999-05-05T00:00:00Z</v>
+        <v>2004-12-07T00:00:00Z</v>
       </c>
       <c r="G97" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2017-04-25T00:00:00Z</v>
+      </c>
+      <c r="H97" t="str">
+        <v>The project aims to capture and destroy the landfill gas (LFG) accumulating at the municipal landfill of the town of Olavarría through recovery and flaring. An active collection system will be installed at the landfill that will consist of gas extraction wells, collection piping, mechanical blowers, LFG condensate and flare systems, as well as a monitoring and control system. The resulting reductions in LFG emissions will be monitored, verified, certified, and sold as ERs to the CDCF administered by the World Bank. Part of the income from the sales of ERs will be used by the Municipality of   Olavarría to install a safe and reliable distribution system for potable water in the rural village of Espigas, 80 km from Olavarría, as well as solar water heating systems in two local schools.</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Social and Fiscal National Identification System  Project</v>
+        <v>Gestión de activos viales nacionales</v>
       </c>
       <c r="B98" t="str">
         <v>Argentina</v>
       </c>
       <c r="C98" t="str">
-        <v>P055461</v>
+        <v>P088153</v>
       </c>
       <c r="D98" t="str">
-        <v>10.00</v>
+        <v>200.00</v>
       </c>
       <c r="E98" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F98" t="str">
-        <v>1999-04-20T00:00:00Z</v>
+        <v>2004-06-29T00:00:00Z</v>
       </c>
       <c r="G98" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2018-01-18T00:00:00Z</v>
+      </c>
+      <c r="H98" t="str">
+        <v>The overall purpose of the program is to gradually consolidate an efficient road network management strategy, bringing about the necessary resources to preserve the national road network in the long term. Specific Objectives are to:  1. Preserve the condition of vital road assets, through the gradual expansion of performance-based contracts for the rehabilitation and maintenance of the non-concessioned primary paved network; 2. Strengthen road sector management through carrying out a renewal program of DNV to revitalize its role in the sector by: (i) reinforcing its human resource base, (ii) consolidating its transformation into a results-oriented organization accountable for specific outputs; (iii) introducing a systematic approach to bridge management and (iv) enhancing road safety</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v xml:space="preserve">Proyecto de energía renovable en el mercado rural </v>
+        <v>AR Economic Recovery Support Structural Adjustment Loan (ERSAL)</v>
       </c>
       <c r="B99" t="str">
         <v>Argentina</v>
       </c>
       <c r="C99" t="str">
-        <v>P006043</v>
+        <v>P083982</v>
       </c>
       <c r="D99" t="str">
-        <v>30.00</v>
+        <v>500.00</v>
       </c>
       <c r="E99" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F99" t="str">
-        <v>1999-03-30T00:00:00Z</v>
+        <v>2004-06-29T00:00:00Z</v>
       </c>
       <c r="G99" t="str">
-        <v>2013-04-15T00:00:00Z</v>
+        <v>2018-01-14T00:00:00Z</v>
+      </c>
+      <c r="H99" t="str">
+        <v>The objective of this structural adjustment loan is to support Argentina's efforts to consolidate economic recovery and ensure long-term growth and employment creation through the expansion of domestic enterprise. This will be accomplished through improving the functioning of the financial sector, resolving disputes in public/private contracts in the utilities sector; increasing transparency in the executive and judicial branches of government; improving the investment climate and the enhancement of competitivenss and export potential of existing and new enterprises through systematic productivity gains, quality improvements and innovation.</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Modernización estatal</v>
+        <v>Proyecto de inversión en salud materno infantil provincial en Argentina (primera fase de préstamo adaptable para programas)</v>
       </c>
       <c r="B100" t="str">
         <v>Argentina</v>
       </c>
       <c r="C100" t="str">
-        <v>P057449</v>
+        <v>P071025</v>
       </c>
       <c r="D100" t="str">
-        <v>30.30</v>
+        <v>135.80</v>
       </c>
       <c r="E100" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F100" t="str">
-        <v>1998-12-17T00:00:00Z</v>
+        <v>2004-04-15T00:00:00Z</v>
       </c>
       <c r="G100" t="str">
         <v>2013-01-15T00:00:00Z</v>
       </c>
+      <c r="H100" t="str">
+        <v>The proposed loan is an integral part of the Government of Argentina's poverty reduction program and aims to support the implementation of the Maternal and Child Health Insurance Program.  The project will contribute to: (a) stop the increase in infant mortality and further reduce it; (b) support the implementation of a significant change in health service contracting and management at provincial level, and (c) strengthen the stewardship capacity of the national and provincial mi nistries of health.</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Special Structural Adjustment Loan Project</v>
+        <v>Actividad de apoyo para la segunda comunicación nacional del gobierno de la República Argentina ante la Convención sobre cambio climático (FMAM)</v>
       </c>
       <c r="B101" t="str">
         <v>Argentina</v>
       </c>
       <c r="C101" t="str">
-        <v>P062991</v>
+        <v>P078143</v>
       </c>
       <c r="D101" t="str">
-        <v>2525.25</v>
+        <v>1.14</v>
       </c>
       <c r="E101" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F101" t="str">
-        <v>1998-11-10T00:00:00Z</v>
+        <v>2003-12-18T00:00:00Z</v>
       </c>
       <c r="G101" t="str">
-        <v>2018-01-14T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Repurchase Facility Support Loan Project</v>
+        <v>Provincial Maternal-Child Hlth Sector Adjustment Ln. (PMCHSAL)</v>
       </c>
       <c r="B102" t="str">
         <v>Argentina</v>
       </c>
       <c r="C102" t="str">
-        <v>P062992</v>
+        <v>P072637</v>
       </c>
       <c r="D102" t="str">
-        <v>505.05</v>
+        <v>750.00</v>
       </c>
       <c r="E102" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F102" t="str">
-        <v>1998-11-10T00:00:00Z</v>
+        <v>2003-10-28T00:00:00Z</v>
       </c>
       <c r="G102" t="str">
-        <v>2018-01-14T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
+      </c>
+      <c r="H102" t="str">
+        <v>The Provincial Maternal-Child Health Sector Adjustment Loan (PMCHSAL) aims to: (a) respond to the urgent health needs of the poor, particularly uninsured mothers and children; and (b) simultaneously, assist the Government to modify the incentive framework for financing and delivery of health care services, starting in Argentina's poorest provinces.</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>AR: Fourth Social Protection Project</v>
+        <v>Argentina Economic and Social Transition Structural Adjustment Loan</v>
       </c>
       <c r="B103" t="str">
         <v>Argentina</v>
       </c>
       <c r="C103" t="str">
-        <v>P006058</v>
+        <v>P083074</v>
       </c>
       <c r="D103" t="str">
-        <v>90.80</v>
+        <v>500.00</v>
       </c>
       <c r="E103" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F103" t="str">
-        <v>1998-10-15T00:00:00Z</v>
+        <v>2003-05-22T00:00:00Z</v>
       </c>
       <c r="G103" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2018-01-14T00:00:00Z</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Social Protection Project (03)</v>
+        <v>Social Protection VI Project - Jefes de Hogar (Heads of Household)</v>
       </c>
       <c r="B104" t="str">
         <v>Argentina</v>
       </c>
       <c r="C104" t="str">
-        <v>P049269</v>
+        <v>P073578</v>
       </c>
       <c r="D104" t="str">
-        <v>284.00</v>
+        <v>600.00</v>
       </c>
       <c r="E104" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F104" t="str">
-        <v>1998-06-30T00:00:00Z</v>
+        <v>2003-01-28T00:00:00Z</v>
       </c>
       <c r="G104" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
+      </c>
+      <c r="H104" t="str">
+        <v>Support a social safety net program which, through financing for small infrastructure and productive activities, maintenance, and community services provides temporary employment to poor workers and improves the living standards in poor communities</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Secondary Education 3</v>
+        <v>ProFam:  Family Strengthening and Social Capital Promotion</v>
       </c>
       <c r="B105" t="str">
         <v>Argentina</v>
       </c>
       <c r="C105" t="str">
-        <v>P050714</v>
+        <v>P070374</v>
       </c>
       <c r="D105" t="str">
-        <v>119.00</v>
+        <v>5.00</v>
       </c>
       <c r="E105" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F105" t="str">
-        <v>1998-04-09T00:00:00Z</v>
+        <v>2001-11-08T00:00:00Z</v>
       </c>
       <c r="G105" t="str">
-        <v>2016-04-12T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
+      </c>
+      <c r="H105" t="str">
+        <v>To test and monitor a social capital approach to address the vulnerability of the poor by targeting families as comprehensive units and promoting gender equity.</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Model Court Development Project</v>
+        <v>AR SAL 1 (Federal Provincial Fiscal Relations)</v>
       </c>
       <c r="B106" t="str">
         <v>Argentina</v>
       </c>
       <c r="C106" t="str">
-        <v>P050713</v>
+        <v>P073591</v>
       </c>
       <c r="D106" t="str">
-        <v>5.00</v>
+        <v>400.00</v>
       </c>
       <c r="E106" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F106" t="str">
-        <v>1998-04-08T00:00:00Z</v>
+        <v>2001-08-28T00:00:00Z</v>
       </c>
       <c r="G106" t="str">
         <v>2013-01-15T00:00:00Z</v>
       </c>
+      <c r="H106" t="str">
+        <v>Project Development Objective (Note: will be disclosed in the MOS) The loan will support the government's efforts to re-organize and improve the efficiency of social sector expenditures, as well as lead efforts to immprove general fiscal performance , budgeting and planning at the provincial level.  The loan would also address consolidation of structural reform at the federal level, specifically in the areas of tax administration and public sector manangement.  Board Schedule Comments</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>National Highways Rehabilitation and Maintenance Project</v>
+        <v>Santa Fe Provincial Reform Adjustment Loan</v>
       </c>
       <c r="B107" t="str">
         <v>Argentina</v>
       </c>
       <c r="C107" t="str">
-        <v>P052590</v>
+        <v>P069913</v>
       </c>
       <c r="D107" t="str">
-        <v>450.00</v>
+        <v>330.00</v>
       </c>
       <c r="E107" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F107" t="str">
-        <v>1998-03-17T00:00:00Z</v>
+        <v>2001-07-19T00:00:00Z</v>
       </c>
       <c r="G107" t="str">
-        <v>2018-01-18T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
+      </c>
+      <c r="H107" t="str">
+        <v>The overall objective of the program supported by the Bank is to help the Province of Santa Fe to reform and restructure its government so as to ensure eficiency, quality and equity in public services, particularly in health, education and social protection, within fiscally sound policies.  Specific objectives include:  A.  Public Finance and Administration (i).    Attaining a fiscal balance (ii).   Modernizing financial management and enhancing transparency (iii).  Economic evaluation of public investments and environmental screening (iv.)  Reducing tax distortions (v).   Modernizing tax administration (vi).  Concessioning electricity distribution to reduce costs B.  Social Protection (i).   Protecting the social safety net (ii).  Modernizing beneficiary registration C.  Education (i).   Protecting education spending (ii).  Improving human resource management systems for teachers and students (iii). Enhancing the use of student/school evaluations (iv).  Strengthening teacher training (v).   Improving the efficieny and equity of private school subsidies. D. Health (i).  Strengthening primary care for the uninsured (ii).  Improving public hospitals (iii). Strengthening the regulatory role of the Ministry of Health (iv). Sustaining the financial balance of the public employee health insurance carrier.</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Pollution Management Project</v>
+        <v>Proyecto de prevención de la contaminación costera y gestión de la biodiversidad biológica marina (FMAM)</v>
       </c>
       <c r="B108" t="str">
         <v>Argentina</v>
       </c>
       <c r="C108" t="str">
-        <v>P006050</v>
+        <v>P049012</v>
       </c>
       <c r="D108" t="str">
-        <v>18.00</v>
+        <v>8.35</v>
       </c>
       <c r="E108" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F108" t="str">
-        <v>1998-02-10T00:00:00Z</v>
+        <v>2001-06-26T00:00:00Z</v>
       </c>
       <c r="G108" t="str">
-        <v>2016-05-10T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
+      </c>
+      <c r="H108" t="str">
+        <v>The Project's global objective is to support long-term protection of international waters and the conservation and sustainable use of marine resources.  The objective will be achieved by financing incremental activities aimed at improving Argentina's capacity to protect marine biodiversity and safeguard Patagonia's marine ecosystem from coastal contamination.</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Second Mining Development Technical Assistance Project</v>
+        <v>Segundo proyecto de educación secundaria – Provincia de Buenos Aires</v>
       </c>
       <c r="B109" t="str">
         <v>Argentina</v>
       </c>
       <c r="C109" t="str">
-        <v>P055477</v>
+        <v>P064614</v>
       </c>
       <c r="D109" t="str">
-        <v>39.50</v>
+        <v>56.99</v>
       </c>
       <c r="E109" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F109" t="str">
-        <v>1998-02-10T00:00:00Z</v>
+        <v>2000-12-07T00:00:00Z</v>
       </c>
       <c r="G109" t="str">
         <v>2013-01-15T00:00:00Z</v>
       </c>
+      <c r="H109" t="str">
+        <v>1. Increase access to quality education and improve equity by supporting the implementation of a Full-Day Schedule (known as the "Jornada Completa") in selected  EGB3 schools serving students from the poorest households.  2.  Increase school management as a necessary complement to the introduction of a "Full-Day Schedule" in the selected EGB3 schools.</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>El Nino Emergency Flood Project</v>
+        <v>Provincial Reform Loan Project - Cordoba</v>
       </c>
       <c r="B110" t="str">
         <v>Argentina</v>
       </c>
       <c r="C110" t="str">
-        <v>P055935</v>
+        <v>P068344</v>
       </c>
       <c r="D110" t="str">
-        <v>42.00</v>
+        <v>303.00</v>
       </c>
       <c r="E110" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F110" t="str">
-        <v>1998-01-20T00:00:00Z</v>
+        <v>2000-11-22T00:00:00Z</v>
       </c>
       <c r="G110" t="str">
         <v>2013-01-15T00:00:00Z</v>
       </c>
+      <c r="H110" t="str">
+        <v>The objective of this structural adjustment loan is to promote an efficient and responsive delivery of public services by the province of Cordoba within fiscally sound policies.</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Provincial Reform Project (02) - Tucuman</v>
+        <v>Sustainable Fisheries Management Project</v>
       </c>
       <c r="B111" t="str">
         <v>Argentina</v>
       </c>
       <c r="C111" t="str">
-        <v>P006006</v>
+        <v>P057459</v>
       </c>
       <c r="D111" t="str">
-        <v>100.00</v>
+        <v>5.00</v>
       </c>
       <c r="E111" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F111" t="str">
-        <v>1997-08-26T00:00:00Z</v>
+        <v>2000-09-19T00:00:00Z</v>
       </c>
       <c r="G111" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
+      </c>
+      <c r="H111" t="str">
+        <v>THE PROJECT WOULD SUPPORT IMPLEMENTATION OF AN INDIVIDUAL TRANSFERABLE QUOTA SYSTEM AND OTHER MEASURES ASSOCIATED WITH IMPROVED, SUSTAINABLE FISHERIES MANAGEMENT INCLUDING ASSISTANCE TO DISPLACED WORKERS. 8/6/2002 - THIS PROJECT WAS APPROVED BY THE BOARD BUT NEVER SIGNED. THE GOVERNMENT DID NOT CONFIRM TO THE BANK THEIR AGREEMENT TO SIGN THE PROJECT WITHIN THE DEADLINE ESTABLISHED BY THE BANK - BEYOND THE 18 MOTH GRACE PERIOD AS PER BANK OPERATIONAL GUDIELINES. CMU DIRECTOR HAS DECIDED TO DROPP PROJECT. 8/6/2002 PROJECT IS SET TO DROP PENDING (BOARD APPROVAL DATE REMOVED) PER MARIA CURZI E-MAIL ON 8/6/2002. OK BY STAEL BALTAR.</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Provincial Reform Project (02) - Salta</v>
+        <v>Indigenous Community Development LIL</v>
       </c>
       <c r="B112" t="str">
         <v>Argentina</v>
       </c>
       <c r="C112" t="str">
-        <v>P051693</v>
+        <v>P057473</v>
       </c>
       <c r="D112" t="str">
-        <v>75.00</v>
+        <v>5.00</v>
       </c>
       <c r="E112" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F112" t="str">
-        <v>1997-08-26T00:00:00Z</v>
+        <v>2000-09-18T00:00:00Z</v>
       </c>
       <c r="G112" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -3222,45 +3279,48 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Provincial Reform Project (02) - San Juan</v>
+        <v>PROVINCIAL REFORM ADJUSTMENT LOAN - CATAMARCA</v>
       </c>
       <c r="B113" t="str">
         <v>Argentina</v>
       </c>
       <c r="C113" t="str">
-        <v>P051694</v>
+        <v>P044447</v>
       </c>
       <c r="D113" t="str">
-        <v>50.00</v>
+        <v>70.70</v>
       </c>
       <c r="E113" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F113" t="str">
-        <v>1997-08-26T00:00:00Z</v>
+        <v>2000-09-14T00:00:00Z</v>
       </c>
       <c r="G113" t="str">
         <v>2013-01-15T00:00:00Z</v>
       </c>
+      <c r="H113" t="str">
+        <v>The overall objective of the program supported by the Bank is to help the Province of Catamarca to reform and restructure its government so as to ensure an efficient and responsive delivery of public services within fiscally sound policies..  Specific objectives are:  A.  Public Finance and Adminsitration: (i).   Improving tax collection and administration to promote higher reliance on own-source revenues and increased accountability; (ii).  Reforming  civil service, including reduction in the wage bill and redundant personnel; improved training and compensation; controls to lower absenteeism and overpayments; and, (iii). Rationalizing public expenditures and prioritizing government spending, with emphasis on privatization and outsourcing to improve the reliability and quality of public services. B.  Education Reform: (i).   Increasing low student/teacher ratios; (ii).  Reducing disproportionate use of temporary and substitute education personnel; (iii). Improving the incentive for quality improvements; (iv). Enhancing private sector participation; and (v).  Reducing administrative costs. C.  Health Reform (i).   Extending coverage to the unisured poor (ii).  Ensuring the financial viability of the provincial health insurance carrier; (iii). Reallocating resources to non-personnel spending; (iv). Promting essential public health services; (v).  Promoting hospital autonomy (vi). Improving integration between primary and secondary health care; and (vii). Accrediting services and quality assurance systems.</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Provincial Reform Project (02) - Rio Negro</v>
+        <v>Health Insurance for the Poor Project</v>
       </c>
       <c r="B114" t="str">
         <v>Argentina</v>
       </c>
       <c r="C114" t="str">
-        <v>P051695</v>
+        <v>P063388</v>
       </c>
       <c r="D114" t="str">
-        <v>75.00</v>
+        <v>4.90</v>
       </c>
       <c r="E114" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F114" t="str">
-        <v>1997-08-26T00:00:00Z</v>
+        <v>1999-11-24T00:00:00Z</v>
       </c>
       <c r="G114" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -3268,68 +3328,68 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Small Farmer Development Project</v>
+        <v>AR-Pub. Hlth. Surveillance &amp; Disease Control Project (VIGIA)</v>
       </c>
       <c r="B115" t="str">
         <v>Argentina</v>
       </c>
       <c r="C115" t="str">
-        <v>P006041</v>
+        <v>P055482</v>
       </c>
       <c r="D115" t="str">
-        <v>75.00</v>
+        <v>52.50</v>
       </c>
       <c r="E115" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F115" t="str">
-        <v>1997-07-17T00:00:00Z</v>
+        <v>1999-10-14T00:00:00Z</v>
       </c>
       <c r="G115" t="str">
-        <v>2016-04-12T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Social Protection Project (02) - TRABAJAR</v>
+        <v>ARGENTINA-POLICY BASED GUARANTEE OPERATION</v>
       </c>
       <c r="B116" t="str">
         <v>Argentina</v>
       </c>
       <c r="C116" t="str">
-        <v>P049268</v>
+        <v>P068845</v>
       </c>
       <c r="D116" t="str">
-        <v>200.00</v>
+        <v>250.00</v>
       </c>
       <c r="E116" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F116" t="str">
-        <v>1997-06-19T00:00:00Z</v>
+        <v>1999-09-16T00:00:00Z</v>
       </c>
       <c r="G116" t="str">
-        <v>2016-04-12T00:00:00Z</v>
+        <v>2018-01-14T00:00:00Z</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>AR Aids and Sexually Transmitted Diseases Control Project</v>
+        <v>Water Sector Reform Project</v>
       </c>
       <c r="B117" t="str">
         <v>Argentina</v>
       </c>
       <c r="C117" t="str">
-        <v>P043418</v>
+        <v>P006046</v>
       </c>
       <c r="D117" t="str">
-        <v>15.00</v>
+        <v>30.00</v>
       </c>
       <c r="E117" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F117" t="str">
-        <v>1997-05-22T00:00:00Z</v>
+        <v>1999-06-01T00:00:00Z</v>
       </c>
       <c r="G117" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -3337,22 +3397,22 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>AR-Maternal and Child Health and Nutrition 2 (PROMIN)</v>
+        <v>Integrated Drug Prevention Pilot Project</v>
       </c>
       <c r="B118" t="str">
         <v>Argentina</v>
       </c>
       <c r="C118" t="str">
-        <v>P006059</v>
+        <v>P058526</v>
       </c>
       <c r="D118" t="str">
-        <v>100.00</v>
+        <v>4.75</v>
       </c>
       <c r="E118" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F118" t="str">
-        <v>1997-05-15T00:00:00Z</v>
+        <v>1999-05-05T00:00:00Z</v>
       </c>
       <c r="G118" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -3360,91 +3420,91 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v xml:space="preserve">Proyecto de transporte urbano en Buenos Aires </v>
+        <v>Social and Fiscal National Identification System  Project</v>
       </c>
       <c r="B119" t="str">
         <v>Argentina</v>
       </c>
       <c r="C119" t="str">
-        <v>P039584</v>
+        <v>P055461</v>
       </c>
       <c r="D119" t="str">
-        <v>200.00</v>
+        <v>10.00</v>
       </c>
       <c r="E119" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F119" t="str">
-        <v>1997-05-15T00:00:00Z</v>
+        <v>1999-04-20T00:00:00Z</v>
       </c>
       <c r="G119" t="str">
-        <v>2018-01-18T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Proyecto de desarrollo agrícola provincial  - Préstamo 4150</v>
+        <v>AR-RENEWABLE ENERGY IN RURAL MARKETS</v>
       </c>
       <c r="B120" t="str">
         <v>Argentina</v>
       </c>
       <c r="C120" t="str">
-        <v>P006010</v>
+        <v>P045048</v>
       </c>
       <c r="D120" t="str">
-        <v>125.00</v>
+        <v>10.00</v>
       </c>
       <c r="E120" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F120" t="str">
-        <v>1997-04-22T00:00:00Z</v>
+        <v>1999-03-30T00:00:00Z</v>
       </c>
       <c r="G120" t="str">
-        <v>2016-04-12T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>National Pension Administration Technical Assistance Project</v>
+        <v xml:space="preserve">Proyecto de energía renovable en el mercado rural </v>
       </c>
       <c r="B121" t="str">
         <v>Argentina</v>
       </c>
       <c r="C121" t="str">
-        <v>P046821</v>
+        <v>P006043</v>
       </c>
       <c r="D121" t="str">
-        <v>20.00</v>
+        <v>30.00</v>
       </c>
       <c r="E121" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F121" t="str">
-        <v>1997-01-21T00:00:00Z</v>
+        <v>1999-03-30T00:00:00Z</v>
       </c>
       <c r="G121" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2013-04-15T00:00:00Z</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Flood Protection Project</v>
+        <v>Modernización estatal</v>
       </c>
       <c r="B122" t="str">
         <v>Argentina</v>
       </c>
       <c r="C122" t="str">
-        <v>P006052</v>
+        <v>P057449</v>
       </c>
       <c r="D122" t="str">
-        <v>200.00</v>
+        <v>30.30</v>
       </c>
       <c r="E122" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F122" t="str">
-        <v>1996-12-11T00:00:00Z</v>
+        <v>1998-12-17T00:00:00Z</v>
       </c>
       <c r="G122" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -3452,91 +3512,91 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Provincial Pension Reform Adjustment Loan Project</v>
+        <v>Special Structural Adjustment Loan Project</v>
       </c>
       <c r="B123" t="str">
         <v>Argentina</v>
       </c>
       <c r="C123" t="str">
-        <v>P044445</v>
+        <v>P062991</v>
       </c>
       <c r="D123" t="str">
-        <v>300.00</v>
+        <v>2525.25</v>
       </c>
       <c r="E123" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F123" t="str">
-        <v>1996-12-11T00:00:00Z</v>
+        <v>1998-11-10T00:00:00Z</v>
       </c>
       <c r="G123" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2018-01-14T00:00:00Z</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Provincial Roads Project</v>
+        <v>Repurchase Facility Support Loan Project</v>
       </c>
       <c r="B124" t="str">
         <v>Argentina</v>
       </c>
       <c r="C124" t="str">
-        <v>P005980</v>
+        <v>P062992</v>
       </c>
       <c r="D124" t="str">
-        <v>300.00</v>
+        <v>505.05</v>
       </c>
       <c r="E124" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F124" t="str">
-        <v>1996-09-12T00:00:00Z</v>
+        <v>1998-11-10T00:00:00Z</v>
       </c>
       <c r="G124" t="str">
-        <v>2018-01-18T00:00:00Z</v>
+        <v>2018-01-14T00:00:00Z</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Proyecto de áreas protegidas y bosques nativos</v>
+        <v>AR: Fourth Social Protection Project</v>
       </c>
       <c r="B125" t="str">
         <v>Argentina</v>
       </c>
       <c r="C125" t="str">
-        <v>P040808</v>
+        <v>P006058</v>
       </c>
       <c r="D125" t="str">
-        <v>19.50</v>
+        <v>90.80</v>
       </c>
       <c r="E125" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F125" t="str">
-        <v>1996-09-05T00:00:00Z</v>
+        <v>1998-10-15T00:00:00Z</v>
       </c>
       <c r="G125" t="str">
-        <v>2016-04-12T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Health Insurance Technical Assistance Project</v>
+        <v>Social Protection Project (03)</v>
       </c>
       <c r="B126" t="str">
         <v>Argentina</v>
       </c>
       <c r="C126" t="str">
-        <v>P045687</v>
+        <v>P049269</v>
       </c>
       <c r="D126" t="str">
-        <v>25.00</v>
+        <v>284.00</v>
       </c>
       <c r="E126" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F126" t="str">
-        <v>1996-04-25T00:00:00Z</v>
+        <v>1998-06-30T00:00:00Z</v>
       </c>
       <c r="G126" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -3544,45 +3604,45 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Health Insurance Reform Loan</v>
+        <v>Secondary Education 3</v>
       </c>
       <c r="B127" t="str">
         <v>Argentina</v>
       </c>
       <c r="C127" t="str">
-        <v>P040909</v>
+        <v>P050714</v>
       </c>
       <c r="D127" t="str">
-        <v>350.00</v>
+        <v>119.00</v>
       </c>
       <c r="E127" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F127" t="str">
-        <v>1996-04-25T00:00:00Z</v>
+        <v>1998-04-09T00:00:00Z</v>
       </c>
       <c r="G127" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>AR-Decentralization &amp; Improvement  of Secondary Educ. &amp; Polymodal Education Development Project</v>
+        <v>Model Court Development Project</v>
       </c>
       <c r="B128" t="str">
         <v>Argentina</v>
       </c>
       <c r="C128" t="str">
-        <v>P006057</v>
+        <v>P050713</v>
       </c>
       <c r="D128" t="str">
-        <v>115.50</v>
+        <v>5.00</v>
       </c>
       <c r="E128" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F128" t="str">
-        <v>1995-12-21T00:00:00Z</v>
+        <v>1998-04-08T00:00:00Z</v>
       </c>
       <c r="G128" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -3590,91 +3650,91 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Enterprise Export Development Project</v>
+        <v>National Highways Rehabilitation and Maintenance Project</v>
       </c>
       <c r="B129" t="str">
         <v>Argentina</v>
       </c>
       <c r="C129" t="str">
-        <v>P038883</v>
+        <v>P052590</v>
       </c>
       <c r="D129" t="str">
-        <v>38.50</v>
+        <v>450.00</v>
       </c>
       <c r="E129" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F129" t="str">
-        <v>1995-11-28T00:00:00Z</v>
+        <v>1998-03-17T00:00:00Z</v>
       </c>
       <c r="G129" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2018-01-18T00:00:00Z</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v xml:space="preserve">Social Protection Project </v>
+        <v>Second Mining Development Technical Assistance Project</v>
       </c>
       <c r="B130" t="str">
         <v>Argentina</v>
       </c>
       <c r="C130" t="str">
-        <v>P035495</v>
+        <v>P055477</v>
       </c>
       <c r="D130" t="str">
-        <v>152.00</v>
+        <v>39.50</v>
       </c>
       <c r="E130" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F130" t="str">
-        <v>1995-11-21T00:00:00Z</v>
+        <v>1998-02-10T00:00:00Z</v>
       </c>
       <c r="G130" t="str">
-        <v>2016-04-12T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Public Investment Strengthening Technical Assistance Project</v>
+        <v>Pollution Management Project</v>
       </c>
       <c r="B131" t="str">
         <v>Argentina</v>
       </c>
       <c r="C131" t="str">
-        <v>P037049</v>
+        <v>P006050</v>
       </c>
       <c r="D131" t="str">
-        <v>16.00</v>
+        <v>18.00</v>
       </c>
       <c r="E131" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F131" t="str">
-        <v>1995-11-21T00:00:00Z</v>
+        <v>1998-02-10T00:00:00Z</v>
       </c>
       <c r="G131" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2016-05-10T00:00:00Z</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Forestry Development Project</v>
+        <v>El Nino Emergency Flood Project</v>
       </c>
       <c r="B132" t="str">
         <v>Argentina</v>
       </c>
       <c r="C132" t="str">
-        <v>P006040</v>
+        <v>P055935</v>
       </c>
       <c r="D132" t="str">
-        <v>16.00</v>
+        <v>42.00</v>
       </c>
       <c r="E132" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F132" t="str">
-        <v>1995-10-24T00:00:00Z</v>
+        <v>1998-01-20T00:00:00Z</v>
       </c>
       <c r="G132" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -3682,22 +3742,22 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Provincial Health Sector Development Project</v>
+        <v>Biodiversity Conservation Project (GEF)</v>
       </c>
       <c r="B133" t="str">
         <v>Argentina</v>
       </c>
       <c r="C133" t="str">
-        <v>P006030</v>
+        <v>P039787</v>
       </c>
       <c r="D133" t="str">
-        <v>101.40</v>
+        <v>10.10</v>
       </c>
       <c r="E133" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F133" t="str">
-        <v>1995-08-03T00:00:00Z</v>
+        <v>1997-10-21T00:00:00Z</v>
       </c>
       <c r="G133" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -3705,22 +3765,22 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>MINING SECTOR DEVELOPMENT T.A.</v>
+        <v>Provincial Reform Project (02) - Salta</v>
       </c>
       <c r="B134" t="str">
         <v>Argentina</v>
       </c>
       <c r="C134" t="str">
-        <v>P006055</v>
+        <v>P051693</v>
       </c>
       <c r="D134" t="str">
-        <v>30.00</v>
+        <v>75.00</v>
       </c>
       <c r="E134" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F134" t="str">
-        <v>1995-07-25T00:00:00Z</v>
+        <v>1997-08-26T00:00:00Z</v>
       </c>
       <c r="G134" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -3728,45 +3788,45 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Bank Reform Loan Project</v>
+        <v>Provincial Reform Project (02) - San Juan</v>
       </c>
       <c r="B135" t="str">
         <v>Argentina</v>
       </c>
       <c r="C135" t="str">
-        <v>P040904</v>
+        <v>P051694</v>
       </c>
       <c r="D135" t="str">
-        <v>500.00</v>
+        <v>50.00</v>
       </c>
       <c r="E135" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F135" t="str">
-        <v>1995-07-25T00:00:00Z</v>
+        <v>1997-08-26T00:00:00Z</v>
       </c>
       <c r="G135" t="str">
-        <v>2018-01-14T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>AR-Higher Education Reform Project</v>
+        <v>Provincial Reform Project (02) - Rio Negro</v>
       </c>
       <c r="B136" t="str">
         <v>Argentina</v>
       </c>
       <c r="C136" t="str">
-        <v>P034091</v>
+        <v>P051695</v>
       </c>
       <c r="D136" t="str">
-        <v>165.00</v>
+        <v>75.00</v>
       </c>
       <c r="E136" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F136" t="str">
-        <v>1995-07-06T00:00:00Z</v>
+        <v>1997-08-26T00:00:00Z</v>
       </c>
       <c r="G136" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -3774,22 +3834,22 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Provincial Development Project (02)</v>
+        <v>Provincial Reform Project (02) - Tucuman</v>
       </c>
       <c r="B137" t="str">
         <v>Argentina</v>
       </c>
       <c r="C137" t="str">
-        <v>P006018</v>
+        <v>P006006</v>
       </c>
       <c r="D137" t="str">
-        <v>225.00</v>
+        <v>100.00</v>
       </c>
       <c r="E137" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F137" t="str">
-        <v>1995-05-04T00:00:00Z</v>
+        <v>1997-08-26T00:00:00Z</v>
       </c>
       <c r="G137" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -3797,160 +3857,160 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Provincial Bank Privatization Loan Project</v>
+        <v>Small Farmer Development Project</v>
       </c>
       <c r="B138" t="str">
         <v>Argentina</v>
       </c>
       <c r="C138" t="str">
-        <v>P040826</v>
+        <v>P006041</v>
       </c>
       <c r="D138" t="str">
-        <v>500.00</v>
+        <v>75.00</v>
       </c>
       <c r="E138" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F138" t="str">
-        <v>1995-05-04T00:00:00Z</v>
+        <v>1997-07-17T00:00:00Z</v>
       </c>
       <c r="G138" t="str">
-        <v>2018-01-14T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Municipal Development Project (02)</v>
+        <v>Social Protection Project (02) - TRABAJAR</v>
       </c>
       <c r="B139" t="str">
         <v>Argentina</v>
       </c>
       <c r="C139" t="str">
-        <v>P006060</v>
+        <v>P049268</v>
       </c>
       <c r="D139" t="str">
-        <v>210.00</v>
+        <v>200.00</v>
       </c>
       <c r="E139" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F139" t="str">
-        <v>1995-03-23T00:00:00Z</v>
+        <v>1997-06-19T00:00:00Z</v>
       </c>
       <c r="G139" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Provincial Reform Loan</v>
+        <v>AR Aids and Sexually Transmitted Diseases Control Project</v>
       </c>
       <c r="B140" t="str">
         <v>Argentina</v>
       </c>
       <c r="C140" t="str">
-        <v>P006035</v>
+        <v>P043418</v>
       </c>
       <c r="D140" t="str">
-        <v>300.00</v>
+        <v>15.00</v>
       </c>
       <c r="E140" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F140" t="str">
-        <v>1995-01-24T00:00:00Z</v>
+        <v>1997-05-22T00:00:00Z</v>
       </c>
       <c r="G140" t="str">
-        <v>2018-01-14T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Decentralization and Improvement of Secondary Education Project</v>
+        <v xml:space="preserve">Proyecto de transporte urbano en Buenos Aires </v>
       </c>
       <c r="B141" t="str">
         <v>Argentina</v>
       </c>
       <c r="C141" t="str">
-        <v>P005992</v>
+        <v>P039584</v>
       </c>
       <c r="D141" t="str">
-        <v>190.00</v>
+        <v>200.00</v>
       </c>
       <c r="E141" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F141" t="str">
-        <v>1994-09-15T00:00:00Z</v>
+        <v>1997-05-15T00:00:00Z</v>
       </c>
       <c r="G141" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2018-01-18T00:00:00Z</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Capital Market Development Technical Assistance Project</v>
+        <v>AR-Maternal and Child Health and Nutrition 2 (PROMIN)</v>
       </c>
       <c r="B142" t="str">
         <v>Argentina</v>
       </c>
       <c r="C142" t="str">
-        <v>P006062</v>
+        <v>P006059</v>
       </c>
       <c r="D142" t="str">
-        <v>8.50</v>
+        <v>100.00</v>
       </c>
       <c r="E142" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F142" t="str">
-        <v>1994-03-01T00:00:00Z</v>
+        <v>1997-05-15T00:00:00Z</v>
       </c>
       <c r="G142" t="str">
-        <v>2018-01-14T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Capital Market Development Project</v>
+        <v>Proyecto de desarrollo agrícola provincial  - Préstamo 4150</v>
       </c>
       <c r="B143" t="str">
         <v>Argentina</v>
       </c>
       <c r="C143" t="str">
-        <v>P005988</v>
+        <v>P006010</v>
       </c>
       <c r="D143" t="str">
-        <v>500.00</v>
+        <v>125.00</v>
       </c>
       <c r="E143" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F143" t="str">
-        <v>1994-03-01T00:00:00Z</v>
+        <v>1997-04-22T00:00:00Z</v>
       </c>
       <c r="G143" t="str">
-        <v>2018-01-14T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v xml:space="preserve">Maternal and Child Health and Nutrition Project </v>
+        <v>National Pension Administration Technical Assistance Project</v>
       </c>
       <c r="B144" t="str">
         <v>Argentina</v>
       </c>
       <c r="C144" t="str">
-        <v>P006025</v>
+        <v>P046821</v>
       </c>
       <c r="D144" t="str">
-        <v>100.00</v>
+        <v>20.00</v>
       </c>
       <c r="E144" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F144" t="str">
-        <v>1993-08-03T00:00:00Z</v>
+        <v>1997-01-21T00:00:00Z</v>
       </c>
       <c r="G144" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -3958,82 +4018,82 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Road Maintenance and Rehabilitation Sector Project</v>
+        <v>Reduction of Ozone Project (Montreal Protocol)</v>
       </c>
       <c r="B145" t="str">
         <v>Argentina</v>
       </c>
       <c r="C145" t="str">
-        <v>P006003</v>
+        <v>P005920</v>
       </c>
       <c r="D145" t="str">
-        <v>340.00</v>
+        <v>0.00</v>
       </c>
       <c r="E145" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F145" t="str">
-        <v>1993-06-03T00:00:00Z</v>
+        <v>1997-01-09T00:00:00Z</v>
       </c>
       <c r="G145" t="str">
-        <v>2018-01-18T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Financial Sector Adjustment Loan Project</v>
+        <v>Provincial Pension Reform Adjustment Loan Project</v>
       </c>
       <c r="B146" t="str">
         <v>Argentina</v>
       </c>
       <c r="C146" t="str">
-        <v>P006047</v>
+        <v>P044445</v>
       </c>
       <c r="D146" t="str">
-        <v>400.00</v>
+        <v>300.00</v>
       </c>
       <c r="E146" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F146" t="str">
-        <v>1993-02-16T00:00:00Z</v>
+        <v>1996-12-11T00:00:00Z</v>
       </c>
       <c r="G146" t="str">
-        <v>2018-01-14T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Debt and Debt Service Reduction Loan Project</v>
+        <v>Flood Protection Project</v>
       </c>
       <c r="B147" t="str">
         <v>Argentina</v>
       </c>
       <c r="C147" t="str">
-        <v>P006037</v>
+        <v>P006052</v>
       </c>
       <c r="D147" t="str">
-        <v>450.00</v>
+        <v>200.00</v>
       </c>
       <c r="E147" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F147" t="str">
-        <v>1993-01-05T00:00:00Z</v>
+        <v>1996-12-11T00:00:00Z</v>
       </c>
       <c r="G147" t="str">
-        <v>2018-01-14T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Public Enterprise Reform Adjustment Loan Project (02)</v>
+        <v>Provincial Roads Project</v>
       </c>
       <c r="B148" t="str">
         <v>Argentina</v>
       </c>
       <c r="C148" t="str">
-        <v>P006012</v>
+        <v>P005980</v>
       </c>
       <c r="D148" t="str">
         <v>300.00</v>
@@ -4042,53 +4102,53 @@
         <v>Cerrado</v>
       </c>
       <c r="F148" t="str">
-        <v>1993-01-05T00:00:00Z</v>
+        <v>1996-09-12T00:00:00Z</v>
       </c>
       <c r="G148" t="str">
-        <v>2018-01-14T00:00:00Z</v>
+        <v>2018-01-18T00:00:00Z</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>YACYRETA II</v>
+        <v>Proyecto de áreas protegidas y bosques nativos</v>
       </c>
       <c r="B149" t="str">
         <v>Argentina</v>
       </c>
       <c r="C149" t="str">
-        <v>P006036</v>
+        <v>P040808</v>
       </c>
       <c r="D149" t="str">
-        <v>300.00</v>
+        <v>19.50</v>
       </c>
       <c r="E149" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F149" t="str">
-        <v>1992-09-29T00:00:00Z</v>
+        <v>1996-09-05T00:00:00Z</v>
       </c>
       <c r="G149" t="str">
-        <v>2015-08-14T00:00:00Z</v>
+        <v>2016-04-12T00:00:00Z</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Flood Rehabilitation Project</v>
+        <v>Health Insurance Reform Loan</v>
       </c>
       <c r="B150" t="str">
         <v>Argentina</v>
       </c>
       <c r="C150" t="str">
-        <v>P006051</v>
+        <v>P040909</v>
       </c>
       <c r="D150" t="str">
-        <v>0.00</v>
+        <v>350.00</v>
       </c>
       <c r="E150" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F150" t="str">
-        <v>1992-09-29T00:00:00Z</v>
+        <v>1996-04-25T00:00:00Z</v>
       </c>
       <c r="G150" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -4096,22 +4156,22 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Tax Administration Technical Assistance Project (02)</v>
+        <v>Health Insurance Technical Assistance Project</v>
       </c>
       <c r="B151" t="str">
         <v>Argentina</v>
       </c>
       <c r="C151" t="str">
-        <v>P006034</v>
+        <v>P045687</v>
       </c>
       <c r="D151" t="str">
-        <v>20.00</v>
+        <v>25.00</v>
       </c>
       <c r="E151" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F151" t="str">
-        <v>1992-04-14T00:00:00Z</v>
+        <v>1996-04-25T00:00:00Z</v>
       </c>
       <c r="G151" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -4119,22 +4179,22 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Hydrocarbon Engineering Project</v>
+        <v>AR-Decentralization &amp; Improvement  of Secondary Educ. &amp; Polymodal Education Development Project</v>
       </c>
       <c r="B152" t="str">
         <v>Argentina</v>
       </c>
       <c r="C152" t="str">
-        <v>P006032</v>
+        <v>P006057</v>
       </c>
       <c r="D152" t="str">
-        <v>28.00</v>
+        <v>115.50</v>
       </c>
       <c r="E152" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F152" t="str">
-        <v>1991-11-19T00:00:00Z</v>
+        <v>1995-12-21T00:00:00Z</v>
       </c>
       <c r="G152" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -4142,22 +4202,22 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Public Sector Reform Loan Project</v>
+        <v>Enterprise Export Development Project</v>
       </c>
       <c r="B153" t="str">
         <v>Argentina</v>
       </c>
       <c r="C153" t="str">
-        <v>P006026</v>
+        <v>P038883</v>
       </c>
       <c r="D153" t="str">
-        <v>325.00</v>
+        <v>38.50</v>
       </c>
       <c r="E153" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F153" t="str">
-        <v>1991-07-30T00:00:00Z</v>
+        <v>1995-11-28T00:00:00Z</v>
       </c>
       <c r="G153" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -4165,22 +4225,22 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Public Sector Reform Technical Assistance Project</v>
+        <v>Public Investment Strengthening Technical Assistance Project</v>
       </c>
       <c r="B154" t="str">
         <v>Argentina</v>
       </c>
       <c r="C154" t="str">
-        <v>P006029</v>
+        <v>P037049</v>
       </c>
       <c r="D154" t="str">
-        <v>23.00</v>
+        <v>16.00</v>
       </c>
       <c r="E154" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F154" t="str">
-        <v>1991-06-25T00:00:00Z</v>
+        <v>1995-11-21T00:00:00Z</v>
       </c>
       <c r="G154" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -4188,22 +4248,22 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Agricultural Services &amp; Institutional Development Project</v>
+        <v xml:space="preserve">Social Protection Project </v>
       </c>
       <c r="B155" t="str">
         <v>Argentina</v>
       </c>
       <c r="C155" t="str">
-        <v>P006009</v>
+        <v>P035495</v>
       </c>
       <c r="D155" t="str">
-        <v>33.50</v>
+        <v>152.00</v>
       </c>
       <c r="E155" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F155" t="str">
-        <v>1991-02-28T00:00:00Z</v>
+        <v>1995-11-21T00:00:00Z</v>
       </c>
       <c r="G155" t="str">
         <v>2016-04-12T00:00:00Z</v>
@@ -4211,85 +4271,91 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Public Enterprise Reform Execution Project (PEREL)</v>
+        <v>Forestry Development Project</v>
       </c>
       <c r="B156" t="str">
         <v>Argentina</v>
       </c>
       <c r="C156" t="str">
-        <v>P006028</v>
+        <v>P006040</v>
       </c>
       <c r="D156" t="str">
-        <v>23.00</v>
+        <v>16.00</v>
       </c>
       <c r="E156" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F156" t="str">
-        <v>1991-02-12T00:00:00Z</v>
+        <v>1995-10-24T00:00:00Z</v>
+      </c>
+      <c r="G156" t="str">
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Public Enterprise Reform Adjustment Loan (PERAL) Project</v>
+        <v>Provincial Health Sector Development Project</v>
       </c>
       <c r="B157" t="str">
         <v>Argentina</v>
       </c>
       <c r="C157" t="str">
-        <v>P005993</v>
+        <v>P006030</v>
       </c>
       <c r="D157" t="str">
-        <v>300.00</v>
+        <v>101.40</v>
       </c>
       <c r="E157" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F157" t="str">
-        <v>1991-02-12T00:00:00Z</v>
+        <v>1995-08-03T00:00:00Z</v>
+      </c>
+      <c r="G157" t="str">
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Provincial Development Project</v>
+        <v>Bank Reform Loan Project</v>
       </c>
       <c r="B158" t="str">
         <v>Argentina</v>
       </c>
       <c r="C158" t="str">
-        <v>P006005</v>
+        <v>P040904</v>
       </c>
       <c r="D158" t="str">
-        <v>200.00</v>
+        <v>500.00</v>
       </c>
       <c r="E158" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F158" t="str">
-        <v>1990-12-18T00:00:00Z</v>
+        <v>1995-07-25T00:00:00Z</v>
       </c>
       <c r="G158" t="str">
-        <v>2013-01-15T00:00:00Z</v>
+        <v>2018-01-14T00:00:00Z</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Water Supply and Sewerage Sector Project</v>
+        <v>MINING SECTOR DEVELOPMENT T.A.</v>
       </c>
       <c r="B159" t="str">
         <v>Argentina</v>
       </c>
       <c r="C159" t="str">
-        <v>P005977</v>
+        <v>P006055</v>
       </c>
       <c r="D159" t="str">
-        <v>100.00</v>
+        <v>30.00</v>
       </c>
       <c r="E159" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F159" t="str">
-        <v>1990-12-18T00:00:00Z</v>
+        <v>1995-07-25T00:00:00Z</v>
       </c>
       <c r="G159" t="str">
         <v>2013-01-15T00:00:00Z</v>
@@ -4297,824 +4363,2049 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Tax Administration Technical Assistance</v>
+        <v>AR-Higher Education Reform Project</v>
       </c>
       <c r="B160" t="str">
         <v>Argentina</v>
       </c>
       <c r="C160" t="str">
-        <v>P006013</v>
+        <v>P034091</v>
       </c>
       <c r="D160" t="str">
-        <v>6.50</v>
+        <v>165.00</v>
       </c>
       <c r="E160" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F160" t="str">
-        <v>1989-01-24T00:00:00Z</v>
+        <v>1995-07-06T00:00:00Z</v>
+      </c>
+      <c r="G160" t="str">
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Electric Power Sector Loan Project</v>
+        <v>Provincial Bank Privatization Loan Project</v>
       </c>
       <c r="B161" t="str">
         <v>Argentina</v>
       </c>
       <c r="C161" t="str">
-        <v>P005986</v>
+        <v>P040826</v>
       </c>
       <c r="D161" t="str">
-        <v>252.00</v>
+        <v>500.00</v>
       </c>
       <c r="E161" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F161" t="str">
-        <v>1988-10-27T00:00:00Z</v>
+        <v>1995-05-04T00:00:00Z</v>
+      </c>
+      <c r="G161" t="str">
+        <v>2018-01-14T00:00:00Z</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Trade Policy Loan Project (02)</v>
+        <v>Provincial Development Project (02)</v>
       </c>
       <c r="B162" t="str">
         <v>Argentina</v>
       </c>
       <c r="C162" t="str">
-        <v>P005987</v>
+        <v>P006018</v>
       </c>
       <c r="D162" t="str">
-        <v>300.00</v>
+        <v>225.00</v>
       </c>
       <c r="E162" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F162" t="str">
-        <v>1988-10-27T00:00:00Z</v>
+        <v>1995-05-04T00:00:00Z</v>
+      </c>
+      <c r="G162" t="str">
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Housing Sector Project (01)</v>
+        <v>Municipal Development Project (02)</v>
       </c>
       <c r="B163" t="str">
         <v>Argentina</v>
       </c>
       <c r="C163" t="str">
-        <v>P006002</v>
+        <v>P006060</v>
       </c>
       <c r="D163" t="str">
-        <v>300.00</v>
+        <v>210.00</v>
       </c>
       <c r="E163" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F163" t="str">
-        <v>1988-10-27T00:00:00Z</v>
+        <v>1995-03-23T00:00:00Z</v>
+      </c>
+      <c r="G163" t="str">
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Social Sector Management Technical Assistance Loan Project</v>
+        <v>Provincial Reform Loan</v>
       </c>
       <c r="B164" t="str">
         <v>Argentina</v>
       </c>
       <c r="C164" t="str">
-        <v>P005991</v>
+        <v>P006035</v>
       </c>
       <c r="D164" t="str">
-        <v>28.00</v>
+        <v>300.00</v>
       </c>
       <c r="E164" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F164" t="str">
-        <v>1988-07-26T00:00:00Z</v>
+        <v>1995-01-24T00:00:00Z</v>
+      </c>
+      <c r="G164" t="str">
+        <v>2018-01-14T00:00:00Z</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Agricultural Credit Project (02)</v>
+        <v>Decentralization and Improvement of Secondary Education Project</v>
       </c>
       <c r="B165" t="str">
         <v>Argentina</v>
       </c>
       <c r="C165" t="str">
-        <v>P005985</v>
+        <v>P005992</v>
       </c>
       <c r="D165" t="str">
-        <v>106.50</v>
+        <v>190.00</v>
       </c>
       <c r="E165" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F165" t="str">
-        <v>1988-06-23T00:00:00Z</v>
+        <v>1994-09-15T00:00:00Z</v>
+      </c>
+      <c r="G165" t="str">
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Banking Sector Loan (BSL) Project</v>
+        <v>Capital Market Development Project</v>
       </c>
       <c r="B166" t="str">
         <v>Argentina</v>
       </c>
       <c r="C166" t="str">
-        <v>P005976</v>
+        <v>P005988</v>
       </c>
       <c r="D166" t="str">
-        <v>400.00</v>
+        <v>500.00</v>
       </c>
       <c r="E166" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F166" t="str">
-        <v>1988-03-29T00:00:00Z</v>
+        <v>1994-03-01T00:00:00Z</v>
+      </c>
+      <c r="G166" t="str">
+        <v>2018-01-14T00:00:00Z</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Municipal Development Project</v>
+        <v>Capital Market Development Technical Assistance Project</v>
       </c>
       <c r="B167" t="str">
         <v>Argentina</v>
       </c>
       <c r="C167" t="str">
-        <v>P005963</v>
+        <v>P006062</v>
       </c>
       <c r="D167" t="str">
-        <v>120.00</v>
+        <v>8.50</v>
       </c>
       <c r="E167" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F167" t="str">
-        <v>1988-03-22T00:00:00Z</v>
+        <v>1994-03-01T00:00:00Z</v>
+      </c>
+      <c r="G167" t="str">
+        <v>2018-01-14T00:00:00Z</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>SEGBA V</v>
+        <v xml:space="preserve">Maternal and Child Health and Nutrition Project </v>
       </c>
       <c r="B168" t="str">
         <v>Argentina</v>
       </c>
       <c r="C168" t="str">
-        <v>P005968</v>
+        <v>P006025</v>
       </c>
       <c r="D168" t="str">
-        <v>276.00</v>
+        <v>100.00</v>
       </c>
       <c r="E168" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F168" t="str">
-        <v>1987-06-23T00:00:00Z</v>
+        <v>1993-08-03T00:00:00Z</v>
       </c>
       <c r="G168" t="str">
-        <v>2015-08-14T00:00:00Z</v>
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Trade Policy &amp; Export Diversification Project</v>
+        <v>Road Maintenance and Rehabilitation Sector Project</v>
       </c>
       <c r="B169" t="str">
         <v>Argentina</v>
       </c>
       <c r="C169" t="str">
-        <v>P005970</v>
+        <v>P006003</v>
       </c>
       <c r="D169" t="str">
-        <v>500.00</v>
+        <v>340.00</v>
       </c>
       <c r="E169" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F169" t="str">
-        <v>1987-05-19T00:00:00Z</v>
+        <v>1993-06-03T00:00:00Z</v>
+      </c>
+      <c r="G169" t="str">
+        <v>2018-01-18T00:00:00Z</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Bahia Blanca I Port Project</v>
+        <v>Financial Sector Adjustment Loan Project</v>
       </c>
       <c r="B170" t="str">
         <v>Argentina</v>
       </c>
       <c r="C170" t="str">
-        <v>P005944</v>
+        <v>P006047</v>
       </c>
       <c r="D170" t="str">
-        <v>50.00</v>
+        <v>400.00</v>
       </c>
       <c r="E170" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F170" t="str">
-        <v>1987-05-05T00:00:00Z</v>
+        <v>1993-02-16T00:00:00Z</v>
+      </c>
+      <c r="G170" t="str">
+        <v>2018-01-14T00:00:00Z</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Small and Medium Scale Industry Credit Project</v>
+        <v>Public Enterprise Reform Adjustment Loan Project (02)</v>
       </c>
       <c r="B171" t="str">
         <v>Argentina</v>
       </c>
       <c r="C171" t="str">
-        <v>P005966</v>
+        <v>P006012</v>
       </c>
       <c r="D171" t="str">
-        <v>125.00</v>
+        <v>300.00</v>
       </c>
       <c r="E171" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F171" t="str">
-        <v>1987-04-14T00:00:00Z</v>
+        <v>1993-01-05T00:00:00Z</v>
+      </c>
+      <c r="G171" t="str">
+        <v>2018-01-14T00:00:00Z</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Power Engineering Project</v>
+        <v>Debt and Debt Service Reduction Loan Project</v>
       </c>
       <c r="B172" t="str">
         <v>Argentina</v>
       </c>
       <c r="C172" t="str">
-        <v>P005962</v>
+        <v>P006037</v>
       </c>
       <c r="D172" t="str">
-        <v>14.00</v>
+        <v>450.00</v>
       </c>
       <c r="E172" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F172" t="str">
-        <v>1986-09-16T00:00:00Z</v>
+        <v>1993-01-05T00:00:00Z</v>
+      </c>
+      <c r="G172" t="str">
+        <v>2018-01-14T00:00:00Z</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Public Sector Management Technical Assistance Project</v>
+        <v>YACYRETA II</v>
       </c>
       <c r="B173" t="str">
         <v>Argentina</v>
       </c>
       <c r="C173" t="str">
-        <v>P005961</v>
+        <v>P006036</v>
       </c>
       <c r="D173" t="str">
-        <v>18.50</v>
+        <v>300.00</v>
       </c>
       <c r="E173" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F173" t="str">
-        <v>1986-06-03T00:00:00Z</v>
+        <v>1992-09-29T00:00:00Z</v>
+      </c>
+      <c r="G173" t="str">
+        <v>2015-08-14T00:00:00Z</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>REFINERY SUPP LOAN</v>
+        <v>Flood Rehabilitation Project</v>
       </c>
       <c r="B174" t="str">
         <v>Argentina</v>
       </c>
       <c r="C174" t="str">
-        <v>P005967</v>
+        <v>P006051</v>
       </c>
       <c r="D174" t="str">
-        <v>116.00</v>
+        <v>0.00</v>
       </c>
       <c r="E174" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F174" t="str">
-        <v>1986-05-20T00:00:00Z</v>
+        <v>1992-09-29T00:00:00Z</v>
+      </c>
+      <c r="G174" t="str">
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Agricultural Sector Loan Project</v>
+        <v>Tax Administration Technical Assistance Project (02)</v>
       </c>
       <c r="B175" t="str">
         <v>Argentina</v>
       </c>
       <c r="C175" t="str">
-        <v>P005956</v>
+        <v>P006034</v>
       </c>
       <c r="D175" t="str">
-        <v>350.00</v>
+        <v>20.00</v>
       </c>
       <c r="E175" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F175" t="str">
-        <v>1986-04-03T00:00:00Z</v>
+        <v>1992-04-14T00:00:00Z</v>
+      </c>
+      <c r="G175" t="str">
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Water Supply Project</v>
+        <v>Hydrocarbon Engineering Project</v>
       </c>
       <c r="B176" t="str">
         <v>Argentina</v>
       </c>
       <c r="C176" t="str">
-        <v>P005945</v>
+        <v>P006032</v>
       </c>
       <c r="D176" t="str">
-        <v>60.00</v>
+        <v>28.00</v>
       </c>
       <c r="E176" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F176" t="str">
-        <v>1985-12-10T00:00:00Z</v>
+        <v>1991-11-19T00:00:00Z</v>
+      </c>
+      <c r="G176" t="str">
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Gas Utilization and Technical Assistance Project</v>
+        <v>Public Sector Reform Loan Project</v>
       </c>
       <c r="B177" t="str">
         <v>Argentina</v>
       </c>
       <c r="C177" t="str">
-        <v>P005949</v>
+        <v>P006026</v>
       </c>
       <c r="D177" t="str">
-        <v>180.00</v>
+        <v>325.00</v>
       </c>
       <c r="E177" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F177" t="str">
-        <v>1985-06-25T00:00:00Z</v>
+        <v>1991-07-30T00:00:00Z</v>
+      </c>
+      <c r="G177" t="str">
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Highway Project (05)</v>
+        <v>Public Sector Reform Technical Assistance Project</v>
       </c>
       <c r="B178" t="str">
         <v>Argentina</v>
       </c>
       <c r="C178" t="str">
-        <v>P005943</v>
+        <v>P006029</v>
       </c>
       <c r="D178" t="str">
-        <v>100.00</v>
+        <v>23.00</v>
       </c>
       <c r="E178" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F178" t="str">
-        <v>1983-05-31T00:00:00Z</v>
+        <v>1991-06-25T00:00:00Z</v>
+      </c>
+      <c r="G178" t="str">
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Industrial Credit Project (02)</v>
+        <v>Agricultural Services &amp; Institutional Development Project</v>
       </c>
       <c r="B179" t="str">
         <v>Argentina</v>
       </c>
       <c r="C179" t="str">
-        <v>P005940</v>
+        <v>P006009</v>
       </c>
       <c r="D179" t="str">
-        <v>100.00</v>
+        <v>33.50</v>
       </c>
       <c r="E179" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F179" t="str">
-        <v>1981-12-01T00:00:00Z</v>
+        <v>1991-02-28T00:00:00Z</v>
+      </c>
+      <c r="G179" t="str">
+        <v>2016-04-12T00:00:00Z</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Oil and Gas Credit Project</v>
+        <v>Public Enterprise Reform Adjustment Loan (PERAL) Project</v>
       </c>
       <c r="B180" t="str">
         <v>Argentina</v>
       </c>
       <c r="C180" t="str">
-        <v>P005941</v>
+        <v>P005993</v>
       </c>
       <c r="D180" t="str">
-        <v>100.00</v>
+        <v>300.00</v>
       </c>
       <c r="E180" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F180" t="str">
-        <v>1981-07-07T00:00:00Z</v>
+        <v>1991-02-12T00:00:00Z</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Refinery Conversion Project</v>
+        <v>Public Enterprise Reform Execution Project (PEREL)</v>
       </c>
       <c r="B181" t="str">
         <v>Argentina</v>
       </c>
       <c r="C181" t="str">
-        <v>P005942</v>
+        <v>P006028</v>
       </c>
       <c r="D181" t="str">
-        <v>200.00</v>
+        <v>23.00</v>
       </c>
       <c r="E181" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F181" t="str">
-        <v>1981-07-07T00:00:00Z</v>
+        <v>1991-02-12T00:00:00Z</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Coal Exploration Project</v>
+        <v>Water Supply and Sewerage Sector Project</v>
       </c>
       <c r="B182" t="str">
         <v>Argentina</v>
       </c>
       <c r="C182" t="str">
-        <v>P005939</v>
+        <v>P005977</v>
       </c>
       <c r="D182" t="str">
-        <v>10.00</v>
+        <v>100.00</v>
       </c>
       <c r="E182" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F182" t="str">
-        <v>1980-12-09T00:00:00Z</v>
+        <v>1990-12-18T00:00:00Z</v>
+      </c>
+      <c r="G182" t="str">
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Vocational Training and Technical Education Project</v>
+        <v>Provincial Development Project</v>
       </c>
       <c r="B183" t="str">
         <v>Argentina</v>
       </c>
       <c r="C183" t="str">
-        <v>P005938</v>
+        <v>P006005</v>
       </c>
       <c r="D183" t="str">
-        <v>58.00</v>
+        <v>200.00</v>
       </c>
       <c r="E183" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F183" t="str">
-        <v>1980-10-07T00:00:00Z</v>
+        <v>1990-12-18T00:00:00Z</v>
+      </c>
+      <c r="G183" t="str">
+        <v>2013-01-15T00:00:00Z</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Oil and Gas Engineering Project</v>
+        <v>Tax Administration Technical Assistance</v>
       </c>
       <c r="B184" t="str">
         <v>Argentina</v>
       </c>
       <c r="C184" t="str">
-        <v>P005936</v>
+        <v>P006013</v>
       </c>
       <c r="D184" t="str">
-        <v>27.00</v>
+        <v>6.50</v>
       </c>
       <c r="E184" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F184" t="str">
-        <v>1980-06-24T00:00:00Z</v>
+        <v>1989-01-24T00:00:00Z</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Yacyreta Hydroelectric Project</v>
+        <v>Electric Power Sector Loan Project</v>
       </c>
       <c r="B185" t="str">
         <v>Argentina</v>
       </c>
       <c r="C185" t="str">
-        <v>P005937</v>
+        <v>P005986</v>
       </c>
       <c r="D185" t="str">
-        <v>210.00</v>
+        <v>252.00</v>
       </c>
       <c r="E185" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F185" t="str">
-        <v>1979-10-16T00:00:00Z</v>
+        <v>1988-10-27T00:00:00Z</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Railways Project (02)</v>
+        <v>Trade Policy Loan Project (02)</v>
       </c>
       <c r="B186" t="str">
         <v>Argentina</v>
       </c>
       <c r="C186" t="str">
-        <v>P005935</v>
+        <v>P005987</v>
       </c>
       <c r="D186" t="str">
-        <v>96.00</v>
+        <v>300.00</v>
       </c>
       <c r="E186" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F186" t="str">
-        <v>1979-03-27T00:00:00Z</v>
+        <v>1988-10-27T00:00:00Z</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Agricultural Credit Project</v>
+        <v>Housing Sector Project (01)</v>
       </c>
       <c r="B187" t="str">
         <v>Argentina</v>
       </c>
       <c r="C187" t="str">
-        <v>P005933</v>
+        <v>P006002</v>
       </c>
       <c r="D187" t="str">
-        <v>60.00</v>
+        <v>300.00</v>
       </c>
       <c r="E187" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F187" t="str">
-        <v>1978-05-09T00:00:00Z</v>
+        <v>1988-10-27T00:00:00Z</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Grain Storage Project</v>
+        <v>Social Sector Management Technical Assistance Loan Project</v>
       </c>
       <c r="B188" t="str">
         <v>Argentina</v>
       </c>
       <c r="C188" t="str">
-        <v>P005934</v>
+        <v>P005991</v>
       </c>
       <c r="D188" t="str">
-        <v>105.00</v>
+        <v>28.00</v>
       </c>
       <c r="E188" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F188" t="str">
-        <v>1978-02-21T00:00:00Z</v>
+        <v>1988-07-26T00:00:00Z</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Industrial Credit Project</v>
+        <v>Agricultural Credit Project (02)</v>
       </c>
       <c r="B189" t="str">
         <v>Argentina</v>
       </c>
       <c r="C189" t="str">
-        <v>P005930</v>
+        <v>P005985</v>
       </c>
       <c r="D189" t="str">
-        <v>100.00</v>
+        <v>106.50</v>
       </c>
       <c r="E189" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F189" t="str">
-        <v>1977-06-16T00:00:00Z</v>
+        <v>1988-06-23T00:00:00Z</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Highway Project (04)</v>
+        <v>Banking Sector Loan (BSL) Project</v>
       </c>
       <c r="B190" t="str">
         <v>Argentina</v>
       </c>
       <c r="C190" t="str">
-        <v>P005932</v>
+        <v>P005976</v>
       </c>
       <c r="D190" t="str">
-        <v>105.00</v>
+        <v>400.00</v>
       </c>
       <c r="E190" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F190" t="str">
-        <v>1977-03-22T00:00:00Z</v>
+        <v>1988-03-29T00:00:00Z</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Buenos Aires Power Project (04)</v>
+        <v>Municipal Development Project</v>
       </c>
       <c r="B191" t="str">
         <v>Argentina</v>
       </c>
       <c r="C191" t="str">
-        <v>P005931</v>
+        <v>P005963</v>
       </c>
       <c r="D191" t="str">
-        <v>115.00</v>
+        <v>120.00</v>
       </c>
       <c r="E191" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F191" t="str">
-        <v>1976-09-21T00:00:00Z</v>
+        <v>1988-03-22T00:00:00Z</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Highway Project (03)</v>
+        <v>SEGBA V</v>
       </c>
       <c r="B192" t="str">
         <v>Argentina</v>
       </c>
       <c r="C192" t="str">
-        <v>P005928</v>
+        <v>P005968</v>
       </c>
       <c r="D192" t="str">
-        <v>67.50</v>
+        <v>276.00</v>
       </c>
       <c r="E192" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F192" t="str">
-        <v>1971-03-30T00:00:00Z</v>
+        <v>1987-06-23T00:00:00Z</v>
+      </c>
+      <c r="G192" t="str">
+        <v>2015-08-14T00:00:00Z</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Railway Project</v>
+        <v>Trade Policy &amp; Export Diversification Project</v>
       </c>
       <c r="B193" t="str">
         <v>Argentina</v>
       </c>
       <c r="C193" t="str">
-        <v>P005929</v>
+        <v>P005970</v>
       </c>
       <c r="D193" t="str">
-        <v>84.00</v>
+        <v>500.00</v>
       </c>
       <c r="E193" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F193" t="str">
-        <v>1971-03-30T00:00:00Z</v>
+        <v>1987-05-19T00:00:00Z</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Buenos Aires Power Project (03)</v>
+        <v>Bahia Blanca I Port Project</v>
       </c>
       <c r="B194" t="str">
         <v>Argentina</v>
       </c>
       <c r="C194" t="str">
-        <v>P005927</v>
+        <v>P005944</v>
       </c>
       <c r="D194" t="str">
-        <v>60.00</v>
+        <v>50.00</v>
       </c>
       <c r="E194" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F194" t="str">
-        <v>1969-10-07T00:00:00Z</v>
+        <v>1987-05-05T00:00:00Z</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Road Project (02)</v>
+        <v>Small and Medium Scale Industry Credit Project</v>
       </c>
       <c r="B195" t="str">
         <v>Argentina</v>
       </c>
       <c r="C195" t="str">
-        <v>P005926</v>
+        <v>P005966</v>
       </c>
       <c r="D195" t="str">
-        <v>25.00</v>
+        <v>125.00</v>
       </c>
       <c r="E195" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F195" t="str">
-        <v>1969-06-24T00:00:00Z</v>
+        <v>1987-04-14T00:00:00Z</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>El Chocon Power Project</v>
+        <v>Power Engineering Project</v>
       </c>
       <c r="B196" t="str">
         <v>Argentina</v>
       </c>
       <c r="C196" t="str">
-        <v>P005925</v>
+        <v>P005962</v>
       </c>
       <c r="D196" t="str">
-        <v>82.00</v>
+        <v>14.00</v>
       </c>
       <c r="E196" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F196" t="str">
-        <v>1968-12-17T00:00:00Z</v>
+        <v>1986-09-16T00:00:00Z</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Buenos Aires Power Project (02)</v>
+        <v>Public Sector Management Technical Assistance Project</v>
       </c>
       <c r="B197" t="str">
         <v>Argentina</v>
       </c>
       <c r="C197" t="str">
-        <v>P005924</v>
+        <v>P005961</v>
       </c>
       <c r="D197" t="str">
-        <v>55.00</v>
+        <v>18.50</v>
       </c>
       <c r="E197" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F197" t="str">
-        <v>1968-01-25T00:00:00Z</v>
+        <v>1986-06-03T00:00:00Z</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Balcarce Livestock Project</v>
+        <v>REFINERY SUPP LOAN</v>
       </c>
       <c r="B198" t="str">
         <v>Argentina</v>
       </c>
       <c r="C198" t="str">
-        <v>P005923</v>
+        <v>P005967</v>
       </c>
       <c r="D198" t="str">
-        <v>15.30</v>
+        <v>116.00</v>
       </c>
       <c r="E198" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F198" t="str">
-        <v>1967-07-31T00:00:00Z</v>
+        <v>1986-05-20T00:00:00Z</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Buenos Aires Power Project</v>
+        <v>Agricultural Sector Loan Project</v>
       </c>
       <c r="B199" t="str">
         <v>Argentina</v>
       </c>
       <c r="C199" t="str">
-        <v>P005922</v>
+        <v>P005956</v>
       </c>
       <c r="D199" t="str">
-        <v>95.00</v>
+        <v>350.00</v>
       </c>
       <c r="E199" t="str">
         <v>Cerrado</v>
       </c>
       <c r="F199" t="str">
-        <v>1962-01-23T00:00:00Z</v>
+        <v>1986-04-03T00:00:00Z</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
+        <v>Water Supply Project</v>
+      </c>
+      <c r="B200" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C200" t="str">
+        <v>P005945</v>
+      </c>
+      <c r="D200" t="str">
+        <v>60.00</v>
+      </c>
+      <c r="E200" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F200" t="str">
+        <v>1985-12-10T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Gas Utilization and Technical Assistance Project</v>
+      </c>
+      <c r="B201" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C201" t="str">
+        <v>P005949</v>
+      </c>
+      <c r="D201" t="str">
+        <v>180.00</v>
+      </c>
+      <c r="E201" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F201" t="str">
+        <v>1985-06-25T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Highway Project (05)</v>
+      </c>
+      <c r="B202" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C202" t="str">
+        <v>P005943</v>
+      </c>
+      <c r="D202" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="E202" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F202" t="str">
+        <v>1983-05-31T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Industrial Credit Project (02)</v>
+      </c>
+      <c r="B203" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C203" t="str">
+        <v>P005940</v>
+      </c>
+      <c r="D203" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="E203" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F203" t="str">
+        <v>1981-12-01T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Oil and Gas Credit Project</v>
+      </c>
+      <c r="B204" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C204" t="str">
+        <v>P005941</v>
+      </c>
+      <c r="D204" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="E204" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F204" t="str">
+        <v>1981-07-07T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Refinery Conversion Project</v>
+      </c>
+      <c r="B205" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C205" t="str">
+        <v>P005942</v>
+      </c>
+      <c r="D205" t="str">
+        <v>200.00</v>
+      </c>
+      <c r="E205" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F205" t="str">
+        <v>1981-07-07T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Coal Exploration Project</v>
+      </c>
+      <c r="B206" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C206" t="str">
+        <v>P005939</v>
+      </c>
+      <c r="D206" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="E206" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F206" t="str">
+        <v>1980-12-09T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Vocational Training and Technical Education Project</v>
+      </c>
+      <c r="B207" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C207" t="str">
+        <v>P005938</v>
+      </c>
+      <c r="D207" t="str">
+        <v>58.00</v>
+      </c>
+      <c r="E207" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F207" t="str">
+        <v>1980-10-07T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Oil and Gas Engineering Project</v>
+      </c>
+      <c r="B208" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C208" t="str">
+        <v>P005936</v>
+      </c>
+      <c r="D208" t="str">
+        <v>27.00</v>
+      </c>
+      <c r="E208" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F208" t="str">
+        <v>1980-06-24T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Yacyreta Hydroelectric Project</v>
+      </c>
+      <c r="B209" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C209" t="str">
+        <v>P005937</v>
+      </c>
+      <c r="D209" t="str">
+        <v>210.00</v>
+      </c>
+      <c r="E209" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F209" t="str">
+        <v>1979-10-16T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Railways Project (02)</v>
+      </c>
+      <c r="B210" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C210" t="str">
+        <v>P005935</v>
+      </c>
+      <c r="D210" t="str">
+        <v>96.00</v>
+      </c>
+      <c r="E210" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F210" t="str">
+        <v>1979-03-27T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Agricultural Credit Project</v>
+      </c>
+      <c r="B211" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C211" t="str">
+        <v>P005933</v>
+      </c>
+      <c r="D211" t="str">
+        <v>60.00</v>
+      </c>
+      <c r="E211" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F211" t="str">
+        <v>1978-05-09T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Grain Storage Project</v>
+      </c>
+      <c r="B212" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C212" t="str">
+        <v>P005934</v>
+      </c>
+      <c r="D212" t="str">
+        <v>105.00</v>
+      </c>
+      <c r="E212" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F212" t="str">
+        <v>1978-02-21T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Industrial Credit Project</v>
+      </c>
+      <c r="B213" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C213" t="str">
+        <v>P005930</v>
+      </c>
+      <c r="D213" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="E213" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F213" t="str">
+        <v>1977-06-16T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Highway Project (04)</v>
+      </c>
+      <c r="B214" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C214" t="str">
+        <v>P005932</v>
+      </c>
+      <c r="D214" t="str">
+        <v>105.00</v>
+      </c>
+      <c r="E214" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F214" t="str">
+        <v>1977-03-22T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Buenos Aires Power Project (04)</v>
+      </c>
+      <c r="B215" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C215" t="str">
+        <v>P005931</v>
+      </c>
+      <c r="D215" t="str">
+        <v>115.00</v>
+      </c>
+      <c r="E215" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F215" t="str">
+        <v>1976-09-21T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Highway Project (03)</v>
+      </c>
+      <c r="B216" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C216" t="str">
+        <v>P005928</v>
+      </c>
+      <c r="D216" t="str">
+        <v>67.50</v>
+      </c>
+      <c r="E216" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F216" t="str">
+        <v>1971-03-30T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Railway Project</v>
+      </c>
+      <c r="B217" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C217" t="str">
+        <v>P005929</v>
+      </c>
+      <c r="D217" t="str">
+        <v>84.00</v>
+      </c>
+      <c r="E217" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F217" t="str">
+        <v>1971-03-30T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Argentina Results in Education Project</v>
+      </c>
+      <c r="B218" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C218" t="str">
+        <v>P101197</v>
+      </c>
+      <c r="D218" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="E218" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G218" t="str">
+        <v>2013-01-15T00:00:00Z</v>
+      </c>
+      <c r="H218" t="str">
+        <v>DON'T PUB DROPPED</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Argentina Integrated Water Resources Management</v>
+      </c>
+      <c r="B219" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C219" t="str">
+        <v>P101242</v>
+      </c>
+      <c r="D219" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="E219" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G219" t="str">
+        <v>2013-01-15T00:00:00Z</v>
+      </c>
+      <c r="H219" t="str">
+        <v>The objective is to assist Argentina in strengthening the capacity of its federal-level and provincial-level institutions and inter-jurisdictional organizations to move forward toward integrated water resources management, in line with the guiding principles for water policy.  The proposed Project aims to assist Argentina in strengthening the capacity of its federal-level and provincial-level institutions and inter-jurisdictional organizations to move forward towards integrated water resources management, in line with the guiding principles for water policy, through: (i) formulating participatory basin water resources management plans in selected basins, (ii) establishing a national water resources monitoring system, (iii) improving water resources management information systems for strategic planning and policy making, and (iv) initiating demonstration projects (or leading models with potential for replication in other parts of the country) to promote integrated water resources management in selected basins. It is proposed the Project is financed by a specific investment loan of about US$100 million equivalent, to be disbursed over 5-6 years, and would consist of the following three components: Component A: Water Resources Monitoring and Information Systems. This component will support the following sub-components: -  Establishing a comprehensive water resources monitoring system, by developing guidelines to harmonize water monitoring across provinces/basins; setting up a national regulatory framework for water quality based on the ongoing work on guidelines on water quality (niveles guía de calidad de agua ambient); strengthening and upgrading data gathering capabilities of the base resource (all sources, surface water, groundwater resources, coastal waters and atmospheric interface; and all facets, quantity and quality), data transmission, and transformation of data into information to support water resources management decisions; upgrading capabilities of regional laboratory for water quality analysis; and strengthening flood forecasting and strengthening reporting capabilities. This sub-component will also assist in setting up a management approach so as to ensure the long-term sustainability of the monitoring networks, paying special attention to their operation, maintenance, budget requirements, and availability of human resources. -  Improving water resources information systems, by assisting in establishing uniform protocols for data gathering, data transmission, data storage, data retrieval and reporting capabilities of all the monitoring systems mentioned above. Protocols will include provisions to provide quality assurance and quality guaranties across the national territory. This component will also assist in setting up an integrated water resources dynamic information framework (DIF) that manages climate, land use, water, and related socio-economic data and to provide technicians and decision-makers with reliable data and information for water resources monitoring and planning and management. Component B: IWRM Institutional Capacity Building. This component will support the following sub-components: -  Strengthening planning capacity of federal and provincial level water administrations and river basin commissions with delegated planning responsibilities by assisting them in the formulation of harmonized provincial water resources management strategies and river basin management plans aimed achieving sustainable development and use of the resource base.  Preparation of basic socio-economic/environmental studies and prospective modeling studies will also be supported under this sub-component. The planning process would follow a participatory approach in dealing with cross-cutting issues and in taking into account the ecosystems and socio-economic structures of each basin. The Project will provide financial resources to support the mobilization of different actors. -  Strengthening the institutional framework of pa</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Rosario Metropolitan Area Infrastructure</v>
+      </c>
+      <c r="B220" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C220" t="str">
+        <v>P101421</v>
+      </c>
+      <c r="D220" t="str">
+        <v>200.00</v>
+      </c>
+      <c r="E220" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G220" t="str">
+        <v>2018-01-18T00:00:00Z</v>
+      </c>
+      <c r="H220" t="str">
+        <v>The overarching development objectives for the proposed program are: (i) to reduce logistics costs for cargo shipped to and from the Port of Rosario by improving accesses to port facilities and increasing the railwayâs modal share in freight transport; and (ii) to improve the quality of life in the Metropolitan Area of Rosario by reducing traffic congestion and assigning the urban land released by the project (i.e. railway tracks, warehousing and maneuver facilities) to improve the quality of the urban environment.</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Program for Smart Growth via Innovation and Support to SMEs</v>
+      </c>
+      <c r="B221" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C221" t="str">
+        <v>P175143</v>
+      </c>
+      <c r="D221" t="str">
+        <v>120.00</v>
+      </c>
+      <c r="E221" t="str">
+        <v>Propuesto</v>
+      </c>
+      <c r="G221" t="str">
+        <v>2021-04-22T00:00:00Z</v>
+      </c>
+      <c r="H221" t="str">
+        <v>The Proposed Program aims to support inputs required to diversify and unleash sources of growth, via productivity and innovation-led  growth, and with a focus on SMEs, efficiency and financial sustainability.</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Buenos Aires &amp;#8211; Mitre Passenger Railway Line Modernization Project</v>
+      </c>
+      <c r="B222" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C222" t="str">
+        <v>P175138</v>
+      </c>
+      <c r="D222" t="str">
+        <v>347.00</v>
+      </c>
+      <c r="E222" t="str">
+        <v>Propuesto</v>
+      </c>
+      <c r="G222" t="str">
+        <v>2021-03-29T00:00:00Z</v>
+      </c>
+      <c r="H222" t="str">
+        <v>The Project Development Objectives are to: (a) improve the reliability and safety of the Mitre Line; and (b) increase accessibility in the Metropolitan Area of Buenos Aires.</v>
+      </c>
+      <c r="I222" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Province of Buenos Aires Housing and Urban Infrastructure Project</v>
+      </c>
+      <c r="B223" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C223" t="str">
+        <v>P175855</v>
+      </c>
+      <c r="D223" t="str">
+        <v>70.00</v>
+      </c>
+      <c r="E223" t="str">
+        <v>Propuesto</v>
+      </c>
+      <c r="G223" t="str">
+        <v>2021-04-20T00:00:00Z</v>
+      </c>
+      <c r="H223" t="str">
+        <v>Increase access to sustainable housing for low-income households in the Province of Buenos Aires and strengthen institutional capaci ty for the design and implementation of housing policies.</v>
+      </c>
+      <c r="I223" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Investing in the first 1,000 days in AR</v>
+      </c>
+      <c r="B224" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C224" t="str">
+        <v>P176156</v>
+      </c>
+      <c r="D224" t="str">
+        <v>300.00</v>
+      </c>
+      <c r="E224" t="str">
+        <v>Propuesto</v>
+      </c>
+      <c r="G224" t="str">
+        <v>2021-04-05T00:00:00Z</v>
+      </c>
+      <c r="H224" t="str">
+        <v>To support early childhood development among vulnerable populations in the first 1,000 days of life.</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Matanza Riachuelo Basin Sustainable Development Project Second Additional Financing</v>
+      </c>
+      <c r="B225" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C225" t="str">
+        <v>P176034</v>
+      </c>
+      <c r="D225" t="str">
+        <v>265.00</v>
+      </c>
+      <c r="E225" t="str">
+        <v>Propuesto</v>
+      </c>
+      <c r="G225" t="str">
+        <v>2021-04-28T00:00:00Z</v>
+      </c>
+      <c r="H225" t="str">
+        <v>The overall development objective of the proposed APL program supports the Government's Integrated Basin Cleanup whilesimultaneously  improving sanitary conditions along the banks of La Plata River and providing a long-term and cost-effectivesolution for safe dispo sal of wastewater from the Buenos Aires Metropolitan Area (AySAs concession area). The two stage APL programthat contributes to this  objective and the allocation of works and activities under each APL has been specifically designed toensure that APL-1 can be free- standing, with no stranded assets at the end of the first stage.  The project (APL-1) development objectives contribute to the o verall program development objective by (i) improving sewerageservices in the M-R River Basin and other parts of the Province and Ci ty of Buenos Aires by expanding transport and treatmentcapacity; (ii) supporting a reduction of industrial discharges to the M-R Riv er, through the provision of industrial conversiongrants to small and medium enterprises; (iii) promoting improved decision-making f or environmentally-sustainable land use anddrainage planning, and piloting urban drainage and land use investments, in the M-R River  Basin; and (iv) strengthening ACUMAR#sinstitutional framework for ongoing and sustainable clean-up of the M-R River Basin.</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>ARGENTINA: Sustainable Recovery of Landscapes and Livelihoods Project</v>
+      </c>
+      <c r="B226" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C226" t="str">
+        <v>P175669</v>
+      </c>
+      <c r="D226" t="str">
+        <v>45.00</v>
+      </c>
+      <c r="E226" t="str">
+        <v>Propuesto</v>
+      </c>
+      <c r="G226" t="str">
+        <v>2021-04-09T00:00:00Z</v>
+      </c>
+      <c r="H226" t="str">
+        <v>To improve the management of ecosystems, the livelihoods of local communities and the resilience in selected conservation and produc tion landscapes and seascapes</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Urban Mobility in Metropolitan Buenos Aires for Economic Recovery</v>
+      </c>
+      <c r="B227" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C227" t="str">
+        <v>P174465</v>
+      </c>
+      <c r="D227" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="E227" t="str">
+        <v>Propuesto</v>
+      </c>
+      <c r="G227" t="str">
+        <v>2021-04-14T00:00:00Z</v>
+      </c>
+      <c r="H227" t="str">
+        <v>The Project Development Objective (PDO) is to improve urban transport services, mobility and accessibility to jobs in the Metropolit an Area of Buenos Aires in the COVID 19 Recovery Phase.</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Proyecto de Fortalecimiento de la Capacidad Estadística en Argentina</v>
+      </c>
+      <c r="B228" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C228" t="str">
+        <v>P158443</v>
+      </c>
+      <c r="D228" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="E228" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G228" t="str">
+        <v>2017-08-04T00:00:00Z</v>
+      </c>
+      <c r="H228" t="str">
+        <v>The objective of the proposed operation is to strengthen the capacity of INDEC to produce and disseminate quality statistics and to fulfill its mandate as coordinator of the National Statistical System.</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Proyecto de Abastecimiento de Agua y Saneamiento: Plan Belgrano</v>
+      </c>
+      <c r="B229" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C229" t="str">
+        <v>P159928</v>
+      </c>
+      <c r="D229" t="str">
+        <v>125.00</v>
+      </c>
+      <c r="E229" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G229" t="str">
+        <v>2018-05-14T00:00:00Z</v>
+      </c>
+      <c r="H229" t="str">
+        <v>The PDO is to increase access to water supply and sanitation services, to improve the quality of services, and the financial perform ance of the WSS operators, in the provinces that form part of Plan Belgrano.</v>
+      </c>
+      <c r="I229" t="str">
+        <v>TBD</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v xml:space="preserve"> Argentina Open Data Readiness Assessments</v>
+      </c>
+      <c r="B230" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C230" t="str">
+        <v>P161164</v>
+      </c>
+      <c r="D230" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E230" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G230" t="str">
+        <v>2017-01-12T00:00:00Z</v>
+      </c>
+      <c r="H230" t="str">
+        <v>The objective is to support Argentina advance and strengthen the countryâs Open Data initiative, including open access to their national statistical data and other data. By opening data, Argentina will increase government transparency, provide information for evidence-based decision-making, improve public sector service delivery, increase economic opportunities and foster citizen engagementin public policies and projects. Open Data helps increase the use of statistics that governments produce, a key action item in the Busan Action Plan for Statistics.</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Capital Market, Infrastructure Bond Liquidity Facility</v>
+      </c>
+      <c r="B231" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C231" t="str">
+        <v>P165178</v>
+      </c>
+      <c r="D231" t="str">
+        <v>450.00</v>
+      </c>
+      <c r="E231" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G231" t="str">
+        <v>2018-07-23T00:00:00Z</v>
+      </c>
+      <c r="H231" t="str">
+        <v>To generate the use of private sector financial instruments for the funding of public/private infrastructure projects.</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>AR Housing Finance Development</v>
+      </c>
+      <c r="B232" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C232" t="str">
+        <v>P165563</v>
+      </c>
+      <c r="D232" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="E232" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G232" t="str">
+        <v>2018-07-23T00:00:00Z</v>
+      </c>
+      <c r="H232" t="str">
+        <v>Develop a sound and growing residential mortgage market with access for lower income population</v>
+      </c>
+      <c r="I232" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Argentina Infrastructure Guarantee Facility for Private Financial Market Funding</v>
+      </c>
+      <c r="B233" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C233" t="str">
+        <v>P166358</v>
+      </c>
+      <c r="D233" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E233" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G233" t="str">
+        <v>2018-07-23T00:00:00Z</v>
+      </c>
+      <c r="H233" t="str">
+        <v>To create a credit enhancement facility for an infrastructure investment fund, in order to attract majority private sector financing  for infrastructure projects contracted under public private partnerships.</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Health Insurance Reform Project (02)</v>
+      </c>
+      <c r="B234" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C234" t="str">
+        <v>P053704</v>
+      </c>
+      <c r="D234" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="E234" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G234" t="str">
+        <v>2013-01-15T00:00:00Z</v>
+      </c>
+      <c r="H234" t="str">
+        <v>Project Development Objective (Note: will be disclosed in the MOS)  SISTER PROJECT TO HEALTH INSURANCE REFORM AR-40909.  IMPROVE THE EFFICIENCY AND EQUITY OF THE SOCIAL HEALTH INSURANCE SYSTEM THROUGH A SERIES OF POLICY REFORMS. Board Schedule Comments</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>REFORM OF JUSTICE SYSTEM</v>
+      </c>
+      <c r="B235" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C235" t="str">
+        <v>P055479</v>
+      </c>
+      <c r="D235" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="E235" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G235" t="str">
+        <v>2013-01-15T00:00:00Z</v>
+      </c>
+      <c r="H235" t="str">
+        <v>THE PROJECT WILL IMPROVE THE ADMINISTRATION, ESTABLISH TRAINING FACILITIES, IMPROVE ACCESS TO JUSTICE, AND THE ROLE OF THE LEGAL PROFESSION AS THEY RELATE TO IMPLEMENTATION OF THE JUDICIAL COUNCIL.</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Argentina Mining Decontamination Project (PRAMU)</v>
+      </c>
+      <c r="B236" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C236" t="str">
+        <v>P057124</v>
+      </c>
+      <c r="D236" t="str">
+        <v>30.00</v>
+      </c>
+      <c r="E236" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G236" t="str">
+        <v>2013-01-15T00:00:00Z</v>
+      </c>
+      <c r="H236" t="str">
+        <v>The development objective of this project is to develop the Argentine Atomic Energy National Commission (CNEA)'s environmental management capacity to plan and carry out technically sound remediation interventions at uranium mining and milling sites under the agency's responsibility, in a transparent and cost-effective manner, generating public credibility and participative support.</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>ARGENTINA DRAINAGE INFRASTRUCTURE MANAGEMENT</v>
+      </c>
+      <c r="B237" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C237" t="str">
+        <v>P057453</v>
+      </c>
+      <c r="D237" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="E237" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G237" t="str">
+        <v>2013-01-15T00:00:00Z</v>
+      </c>
+      <c r="H237" t="str">
+        <v>THE PROPOSED INVESTMENTS WILL COMPLEMENT THE INVESTMENTS MADE UNDER THE FLOOD REHABILITATION PROJECT AND THE FLOOD PROTECTION PROJECT BY PROVIDING ADEQUATE DRAINAGE INFRASTRUCTURE IN KEY ECONOMICALLY ACTIVE URBAN AREAS.</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Education Sector Support Project</v>
+      </c>
+      <c r="B238" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C238" t="str">
+        <v>P081395</v>
+      </c>
+      <c r="D238" t="str">
+        <v>400.00</v>
+      </c>
+      <c r="E238" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G238" t="str">
+        <v>2013-01-15T00:00:00Z</v>
+      </c>
+      <c r="H238" t="str">
+        <v>Help to ensure the provision of primary and secondary education during the current economic and social crisis in Argentina, and support the overall effort to promote fiscal equilibrium of provincial governments.  This would be achieved by providing financial support for the Federal Government so that it might channel funds to participating provinces to meet the payroll for teachers over a limited period of time, within the framework of the Program for Fiscal Equilibrium.</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Sustainable Industrial Development</v>
+      </c>
+      <c r="B239" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C239" t="str">
+        <v>P110612</v>
+      </c>
+      <c r="D239" t="str">
+        <v>40.00</v>
+      </c>
+      <c r="E239" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G239" t="str">
+        <v>2014-09-24T00:00:00Z</v>
+      </c>
+      <c r="H239" t="str">
+        <v>The objective is to support small and medium enterprises in Argentina with inadequate access to credit to improve their compliance with environmental regulations, while simultaneously boosting their industrial competitiveness.</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Sustainable Forestry Development</v>
+      </c>
+      <c r="B240" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C240" t="str">
+        <v>P088258</v>
+      </c>
+      <c r="D240" t="str">
+        <v>25.00</v>
+      </c>
+      <c r="E240" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G240" t="str">
+        <v>2013-01-15T00:00:00Z</v>
+      </c>
+      <c r="H240" t="str">
+        <v>Promote mainstreaming of biodiversity into the plantation forestry sector of Argentina.</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>BA ity Infrastructure DO NOT USE</v>
+      </c>
+      <c r="B241" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C241" t="str">
+        <v>P088624</v>
+      </c>
+      <c r="D241" t="str">
+        <v>130.00</v>
+      </c>
+      <c r="E241" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G241" t="str">
+        <v>2013-01-15T00:00:00Z</v>
+      </c>
+      <c r="H241" t="str">
+        <v>All 54 documents dating from November 30, 2003 to December 16, 2004 were transferred to folder P088220 by task manager's request on January, 2005.</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Improving tax administration in Buenos Aires province</v>
+      </c>
+      <c r="B242" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C242" t="str">
+        <v>P121603</v>
+      </c>
+      <c r="D242" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="E242" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G242" t="str">
+        <v>2013-01-15T00:00:00Z</v>
+      </c>
+      <c r="H242" t="str">
+        <v>To increase tax compliance in the Province of Buenos Aires through improvements in ARBA#s management and service model. The objective will be achieved by: (i) the implementation of the single taxpayer account; (ii) institutional strengthening of ARBA, (iii) the improvement in tax evasion detection, control and monitoring, and (iv) the enhancement of taxpayers# services.</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Foundations for Performance-Informed Budgeting</v>
+      </c>
+      <c r="B243" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C243" t="str">
+        <v>P092840</v>
+      </c>
+      <c r="D243" t="str">
+        <v>28.00</v>
+      </c>
+      <c r="E243" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G243" t="str">
+        <v>2013-01-15T00:00:00Z</v>
+      </c>
+      <c r="H243" t="str">
+        <v>The proposed project aims at promoting social inclusion by ensuring greater participation of poor and vulnerable groups in strategic planning and increasing responsiveness of public and private investment to their needs. Greater transparency and accountability in public expenditure management will help channel resources to the intended beneficiaries, who will help monitor and evaluate public spending, project results, ultimately helping promote greater social inclusion. Project implementation will make extensive use of consultations to give greater voice to the intended beneficiaries.</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Preparación para REDD del Fondo Cooperativo para el Carbono de los Bosques en Argentina</v>
+      </c>
+      <c r="B244" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C244" t="str">
+        <v>P120414</v>
+      </c>
+      <c r="D244" t="str">
+        <v>3.80</v>
+      </c>
+      <c r="E244" t="str">
+        <v>Propuesto</v>
+      </c>
+      <c r="G244" t="str">
+        <v>2021-04-19T00:00:00Z</v>
+      </c>
+      <c r="H244" t="str">
+        <v>The Project Development Objective is to support Argentina’s REDD+ readiness efforts, in particular those activities focusing on management arrangements, REDD+ Strategy development, and Strategic Environmental and Social Assessment.The key results expected from the proposed REDD+ readiness grant are:i.REDD+ Management arrangements have been strengthened through the establishment and functioning of Executive and Advisory Committees. ii.REDD+ strategic options are consulted and designed iii.A participatory SESA (Strategic Environmental and Social Assessment) and an ESMF (Environmental and Social management Framework) are prepared with feedback from key stakeholders.</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>AR PROSAP3 - Third Provincial Agricultural Development Project</v>
+      </c>
+      <c r="B245" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C245" t="str">
+        <v>P132416</v>
+      </c>
+      <c r="D245" t="str">
+        <v>500.00</v>
+      </c>
+      <c r="E245" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G245" t="str">
+        <v>2016-08-25T00:00:00Z</v>
+      </c>
+      <c r="H245" t="str">
+        <v>To increase productivity and sales for small and medium-scale producers supported by project activities. To reach its objective, the project will support capacity-building and investments geared toward a more efficient use of natural resources and energy, increased adaptation to climate change, long-term improvement in productivity and market access, overall contributing to an increased competitiveness and sustainability of agricultural production systems in the regional economies.</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Social Inclusion SWAp</v>
+      </c>
+      <c r="B246" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C246" t="str">
+        <v>P127864</v>
+      </c>
+      <c r="D246" t="str">
+        <v>60.00</v>
+      </c>
+      <c r="E246" t="str">
+        <v>Abandonado</v>
+      </c>
+      <c r="G246" t="str">
+        <v>2014-04-28T00:00:00Z</v>
+      </c>
+      <c r="H246" t="str">
+        <v>The objective of the Project is to improve access to primary health and secondary education services among the underserved population and strengthen provincial public management systems in the Province of Salta.</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Buenos Aires Power Project (03)</v>
+      </c>
+      <c r="B247" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C247" t="str">
+        <v>P005927</v>
+      </c>
+      <c r="D247" t="str">
+        <v>60.00</v>
+      </c>
+      <c r="E247" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F247" t="str">
+        <v>1969-10-07T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Road Project (02)</v>
+      </c>
+      <c r="B248" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C248" t="str">
+        <v>P005926</v>
+      </c>
+      <c r="D248" t="str">
+        <v>25.00</v>
+      </c>
+      <c r="E248" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F248" t="str">
+        <v>1969-06-24T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>El Chocon Power Project</v>
+      </c>
+      <c r="B249" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C249" t="str">
+        <v>P005925</v>
+      </c>
+      <c r="D249" t="str">
+        <v>82.00</v>
+      </c>
+      <c r="E249" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F249" t="str">
+        <v>1968-12-17T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Buenos Aires Power Project (02)</v>
+      </c>
+      <c r="B250" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C250" t="str">
+        <v>P005924</v>
+      </c>
+      <c r="D250" t="str">
+        <v>55.00</v>
+      </c>
+      <c r="E250" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F250" t="str">
+        <v>1968-01-25T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Balcarce Livestock Project</v>
+      </c>
+      <c r="B251" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C251" t="str">
+        <v>P005923</v>
+      </c>
+      <c r="D251" t="str">
+        <v>15.30</v>
+      </c>
+      <c r="E251" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F251" t="str">
+        <v>1967-07-31T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Buenos Aires Power Project</v>
+      </c>
+      <c r="B252" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C252" t="str">
+        <v>P005922</v>
+      </c>
+      <c r="D252" t="str">
+        <v>95.00</v>
+      </c>
+      <c r="E252" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F252" t="str">
+        <v>1962-01-23T00:00:00Z</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
         <v>Road Project</v>
       </c>
-      <c r="B200" t="str">
-        <v>Argentina</v>
-      </c>
-      <c r="C200" t="str">
+      <c r="B253" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C253" t="str">
         <v>P005921</v>
       </c>
-      <c r="D200" t="str">
+      <c r="D253" t="str">
         <v>48.50</v>
       </c>
-      <c r="E200" t="str">
-        <v>Cerrado</v>
-      </c>
-      <c r="F200" t="str">
+      <c r="E253" t="str">
+        <v>Cerrado</v>
+      </c>
+      <c r="F253" t="str">
         <v>1961-06-30T00:00:00Z</v>
       </c>
     </row>
@@ -5321,9 +6612,62 @@
     <hyperlink ref="A198" r:id="rId196"/>
     <hyperlink ref="A199" r:id="rId197"/>
     <hyperlink ref="A200" r:id="rId198"/>
+    <hyperlink ref="A201" r:id="rId199"/>
+    <hyperlink ref="A202" r:id="rId200"/>
+    <hyperlink ref="A203" r:id="rId201"/>
+    <hyperlink ref="A204" r:id="rId202"/>
+    <hyperlink ref="A205" r:id="rId203"/>
+    <hyperlink ref="A206" r:id="rId204"/>
+    <hyperlink ref="A207" r:id="rId205"/>
+    <hyperlink ref="A208" r:id="rId206"/>
+    <hyperlink ref="A209" r:id="rId207"/>
+    <hyperlink ref="A210" r:id="rId208"/>
+    <hyperlink ref="A211" r:id="rId209"/>
+    <hyperlink ref="A212" r:id="rId210"/>
+    <hyperlink ref="A213" r:id="rId211"/>
+    <hyperlink ref="A214" r:id="rId212"/>
+    <hyperlink ref="A215" r:id="rId213"/>
+    <hyperlink ref="A216" r:id="rId214"/>
+    <hyperlink ref="A217" r:id="rId215"/>
+    <hyperlink ref="A218" r:id="rId216"/>
+    <hyperlink ref="A219" r:id="rId217"/>
+    <hyperlink ref="A220" r:id="rId218"/>
+    <hyperlink ref="A221" r:id="rId219"/>
+    <hyperlink ref="A222" r:id="rId220"/>
+    <hyperlink ref="A223" r:id="rId221"/>
+    <hyperlink ref="A224" r:id="rId222"/>
+    <hyperlink ref="A225" r:id="rId223"/>
+    <hyperlink ref="A226" r:id="rId224"/>
+    <hyperlink ref="A227" r:id="rId225"/>
+    <hyperlink ref="A228" r:id="rId226"/>
+    <hyperlink ref="A229" r:id="rId227"/>
+    <hyperlink ref="A230" r:id="rId228"/>
+    <hyperlink ref="A231" r:id="rId229"/>
+    <hyperlink ref="A232" r:id="rId230"/>
+    <hyperlink ref="A233" r:id="rId231"/>
+    <hyperlink ref="A234" r:id="rId232"/>
+    <hyperlink ref="A235" r:id="rId233"/>
+    <hyperlink ref="A236" r:id="rId234"/>
+    <hyperlink ref="A237" r:id="rId235"/>
+    <hyperlink ref="A238" r:id="rId236"/>
+    <hyperlink ref="A239" r:id="rId237"/>
+    <hyperlink ref="A240" r:id="rId238"/>
+    <hyperlink ref="A241" r:id="rId239"/>
+    <hyperlink ref="A242" r:id="rId240"/>
+    <hyperlink ref="A243" r:id="rId241"/>
+    <hyperlink ref="A244" r:id="rId242"/>
+    <hyperlink ref="A245" r:id="rId243"/>
+    <hyperlink ref="A246" r:id="rId244"/>
+    <hyperlink ref="A247" r:id="rId245"/>
+    <hyperlink ref="A248" r:id="rId246"/>
+    <hyperlink ref="A249" r:id="rId247"/>
+    <hyperlink ref="A250" r:id="rId248"/>
+    <hyperlink ref="A251" r:id="rId249"/>
+    <hyperlink ref="A252" r:id="rId250"/>
+    <hyperlink ref="A253" r:id="rId251"/>
   </hyperlinks>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I200"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I253"/>
   </ignoredErrors>
 </worksheet>
 </file>